--- a/sfe322_gcs_analysis/0_SFE_322_RiverBuilder_metrics.xlsx
+++ b/sfe322_gcs_analysis/0_SFE_322_RiverBuilder_metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\usu-RiverBuilder\sfe322_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE6D3A-4FF4-457F-A460-4EC28EFD0D35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A4D629-10CD-4438-A1D5-A4D5867A69E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="2325" windowWidth="27435" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22875" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spatial_series" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Thalweg length</t>
   </si>
@@ -186,6 +186,9 @@
   <si>
     <t>(Straight) length</t>
   </si>
+  <si>
+    <t>From trend analysis</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -326,11 +329,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8246,7 +8250,7 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36"/>
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8328,15 +8332,15 @@
       <c r="M2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26" t="s">
+      <c r="W2" s="28"/>
+      <c r="X2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
@@ -8431,7 +8435,7 @@
       <c r="L4" s="7">
         <v>37.985019225768703</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="26">
         <f>L4/2</f>
         <v>18.992509612884351</v>
       </c>
@@ -8478,7 +8482,7 @@
       <c r="L5" s="7">
         <v>38.000619937399101</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="26">
         <f t="shared" ref="M5:M68" si="5">L5/2</f>
         <v>19.00030996869955</v>
       </c>
@@ -8539,7 +8543,7 @@
       <c r="L6" s="7">
         <v>37.513757751759798</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="26">
         <f t="shared" si="5"/>
         <v>18.756878875879899</v>
       </c>
@@ -8600,7 +8604,7 @@
       <c r="L7" s="7">
         <v>36.098999015570499</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f t="shared" si="5"/>
         <v>18.049499507785249</v>
       </c>
@@ -8647,7 +8651,7 @@
       <c r="L8" s="7">
         <v>35.983342410739603</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <f t="shared" si="5"/>
         <v>17.991671205369801</v>
       </c>
@@ -8704,7 +8708,7 @@
       <c r="L9" s="7">
         <v>35.009966955760703</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="26">
         <f t="shared" si="5"/>
         <v>17.504983477880351</v>
       </c>
@@ -8758,7 +8762,7 @@
       <c r="L10" s="7">
         <v>34.943612037133299</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
         <f t="shared" si="5"/>
         <v>17.471806018566649</v>
       </c>
@@ -8812,7 +8816,7 @@
       <c r="L11" s="7">
         <v>35.9144386964511</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="26">
         <f t="shared" si="5"/>
         <v>17.95721934822555</v>
       </c>
@@ -8859,7 +8863,7 @@
       <c r="L12" s="7">
         <v>34.349248930527601</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="26">
         <f t="shared" si="5"/>
         <v>17.1746244652638</v>
       </c>
@@ -8916,7 +8920,7 @@
       <c r="L13" s="7">
         <v>34.105149242221501</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="26">
         <f t="shared" si="5"/>
         <v>17.05257462111075</v>
       </c>
@@ -8963,7 +8967,7 @@
       <c r="L14" s="7">
         <v>33.156763971189697</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="26">
         <f t="shared" si="5"/>
         <v>16.578381985594849</v>
       </c>
@@ -9020,7 +9024,7 @@
       <c r="L15" s="7">
         <v>33.041093362971303</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="26">
         <f t="shared" si="5"/>
         <v>16.520546681485651</v>
       </c>
@@ -9070,7 +9074,7 @@
       <c r="L16" s="7">
         <v>32.124267149537502</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="26">
         <f t="shared" si="5"/>
         <v>16.062133574768751</v>
       </c>
@@ -9131,7 +9135,7 @@
       <c r="L17" s="7">
         <v>31.050190457852</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="26">
         <f t="shared" si="5"/>
         <v>15.525095228926</v>
       </c>
@@ -9191,7 +9195,7 @@
       <c r="L18" s="7">
         <v>31.463278998018801</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="26">
         <f t="shared" si="5"/>
         <v>15.7316394990094</v>
       </c>
@@ -9247,7 +9251,7 @@
       <c r="L19" s="7">
         <v>32.733897102554103</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="26">
         <f t="shared" si="5"/>
         <v>16.366948551277051</v>
       </c>
@@ -9294,7 +9298,7 @@
       <c r="L20" s="7">
         <v>32.104804817929399</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="26">
         <f t="shared" si="5"/>
         <v>16.052402408964699</v>
       </c>
@@ -9355,7 +9359,7 @@
       <c r="L21" s="7">
         <v>32.084681786096603</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="26">
         <f t="shared" si="5"/>
         <v>16.042340893048301</v>
       </c>
@@ -9414,7 +9418,7 @@
       <c r="L22" s="7">
         <v>32.147039204068001</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="26">
         <f t="shared" si="5"/>
         <v>16.073519602034001</v>
       </c>
@@ -9461,7 +9465,7 @@
       <c r="L23" s="7">
         <v>32.194785560579199</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="26">
         <f t="shared" si="5"/>
         <v>16.097392780289599</v>
       </c>
@@ -9521,7 +9525,7 @@
       <c r="L24" s="7">
         <v>32.281968013564303</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="26">
         <f t="shared" si="5"/>
         <v>16.140984006782151</v>
       </c>
@@ -9580,7 +9584,7 @@
       <c r="L25" s="7">
         <v>32.341966288517803</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="26">
         <f t="shared" si="5"/>
         <v>16.170983144258901</v>
       </c>
@@ -9627,7 +9631,7 @@
       <c r="L26" s="7">
         <v>32.321642978818502</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="26">
         <f t="shared" si="5"/>
         <v>16.160821489409251</v>
       </c>
@@ -9683,11 +9687,16 @@
       <c r="L27" s="7">
         <v>32.301319669097801</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="26">
         <f t="shared" si="5"/>
         <v>16.1506598345489</v>
       </c>
-      <c r="Y27" s="13"/>
+      <c r="X27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>1.2E-2</v>
+      </c>
       <c r="Z27" s="10" t="s">
         <v>49</v>
       </c>
@@ -9734,7 +9743,7 @@
       <c r="L28" s="7">
         <v>31.363655438077199</v>
       </c>
-      <c r="M28" s="27">
+      <c r="M28" s="26">
         <f t="shared" si="5"/>
         <v>15.6818277190386</v>
       </c>
@@ -9781,14 +9790,14 @@
       <c r="L29" s="7">
         <v>31.323125620959502</v>
       </c>
-      <c r="M29" s="27">
+      <c r="M29" s="26">
         <f t="shared" si="5"/>
         <v>15.661562810479751</v>
       </c>
-      <c r="V29" s="26" t="s">
+      <c r="V29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="W29" s="26"/>
+      <c r="W29" s="28"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -9832,7 +9841,7 @@
       <c r="L30" s="7">
         <v>31.282595803822201</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M30" s="26">
         <f t="shared" si="5"/>
         <v>15.6412979019111</v>
       </c>
@@ -9889,7 +9898,7 @@
       <c r="L31" s="7">
         <v>31.242065986625899</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="26">
         <f t="shared" si="5"/>
         <v>15.62103299331295</v>
       </c>
@@ -9945,7 +9954,7 @@
       <c r="L32" s="7">
         <v>31.081113180553199</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M32" s="26">
         <f t="shared" si="5"/>
         <v>15.5405565902766</v>
       </c>
@@ -10001,7 +10010,7 @@
       <c r="L33" s="7">
         <v>31.062974157695901</v>
       </c>
-      <c r="M33" s="27">
+      <c r="M33" s="26">
         <f t="shared" si="5"/>
         <v>15.531487078847951</v>
       </c>
@@ -10048,7 +10057,7 @@
       <c r="L34" s="7">
         <v>30.307832023300598</v>
       </c>
-      <c r="M34" s="27">
+      <c r="M34" s="26">
         <f t="shared" si="5"/>
         <v>15.153916011650299</v>
       </c>
@@ -10101,7 +10110,7 @@
       <c r="L35" s="7">
         <v>29.562723251867599</v>
       </c>
-      <c r="M35" s="27">
+      <c r="M35" s="26">
         <f t="shared" si="5"/>
         <v>14.781361625933799</v>
       </c>
@@ -10154,7 +10163,7 @@
       <c r="L36" s="7">
         <v>28.8171950958676</v>
       </c>
-      <c r="M36" s="27">
+      <c r="M36" s="26">
         <f t="shared" si="5"/>
         <v>14.4085975479338</v>
       </c>
@@ -10208,7 +10217,7 @@
       <c r="L37" s="7">
         <v>27.452720227488399</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="26">
         <f t="shared" si="5"/>
         <v>13.7263601137442</v>
       </c>
@@ -10255,14 +10264,14 @@
       <c r="L38" s="7">
         <v>26.608733786304899</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="26">
         <f t="shared" si="5"/>
         <v>13.30436689315245</v>
       </c>
-      <c r="V38" s="26" t="s">
+      <c r="V38" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="W38" s="26"/>
+      <c r="W38" s="28"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -10306,7 +10315,7 @@
       <c r="L39" s="7">
         <v>26.505477129404799</v>
       </c>
-      <c r="M39" s="27">
+      <c r="M39" s="26">
         <f t="shared" si="5"/>
         <v>13.252738564702399</v>
       </c>
@@ -10360,7 +10369,7 @@
       <c r="L40" s="7">
         <v>26.365186520797799</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="26">
         <f t="shared" si="5"/>
         <v>13.1825932603989</v>
       </c>
@@ -10414,7 +10423,7 @@
       <c r="L41" s="7">
         <v>25.381668234656999</v>
       </c>
-      <c r="M41" s="27">
+      <c r="M41" s="26">
         <f t="shared" si="5"/>
         <v>12.6908341173285</v>
       </c>
@@ -10462,7 +10471,7 @@
       <c r="L42" s="7">
         <v>25.206377949447599</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="26">
         <f t="shared" si="5"/>
         <v>12.6031889747238</v>
       </c>
@@ -10509,7 +10518,7 @@
       <c r="L43" s="7">
         <v>24.6700022102014</v>
       </c>
-      <c r="M43" s="27">
+      <c r="M43" s="26">
         <f t="shared" si="5"/>
         <v>12.3350011051007</v>
       </c>
@@ -10557,7 +10566,7 @@
       <c r="L44" s="7">
         <v>24.876232370855899</v>
       </c>
-      <c r="M44" s="27">
+      <c r="M44" s="26">
         <f t="shared" si="5"/>
         <v>12.438116185427949</v>
       </c>
@@ -10604,7 +10613,7 @@
       <c r="L45" s="7">
         <v>26.168374104283298</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="26">
         <f t="shared" si="5"/>
         <v>13.084187052141649</v>
       </c>
@@ -10651,7 +10660,7 @@
       <c r="L46" s="7">
         <v>27.552615894885299</v>
       </c>
-      <c r="M46" s="27">
+      <c r="M46" s="26">
         <f t="shared" si="5"/>
         <v>13.77630794744265</v>
       </c>
@@ -10698,7 +10707,7 @@
       <c r="L47" s="7">
         <v>28.193819151122501</v>
       </c>
-      <c r="M47" s="27">
+      <c r="M47" s="26">
         <f t="shared" si="5"/>
         <v>14.09690957556125</v>
       </c>
@@ -10745,7 +10754,7 @@
       <c r="L48" s="7">
         <v>28.7735833639547</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="26">
         <f t="shared" si="5"/>
         <v>14.38679168197735</v>
       </c>
@@ -10793,7 +10802,7 @@
       <c r="L49" s="7">
         <v>29.038701640030201</v>
       </c>
-      <c r="M49" s="27">
+      <c r="M49" s="26">
         <f t="shared" si="5"/>
         <v>14.5193508200151</v>
       </c>
@@ -10840,7 +10849,7 @@
       <c r="L50" s="7">
         <v>32.227280848979497</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M50" s="26">
         <f t="shared" si="5"/>
         <v>16.113640424489748</v>
       </c>
@@ -10887,7 +10896,7 @@
       <c r="L51" s="7">
         <v>34.245479205460498</v>
       </c>
-      <c r="M51" s="27">
+      <c r="M51" s="26">
         <f t="shared" si="5"/>
         <v>17.122739602730249</v>
       </c>
@@ -10934,7 +10943,7 @@
       <c r="L52" s="7">
         <v>34.998695119390199</v>
       </c>
-      <c r="M52" s="27">
+      <c r="M52" s="26">
         <f t="shared" si="5"/>
         <v>17.499347559695099</v>
       </c>
@@ -10981,7 +10990,7 @@
       <c r="L53" s="7">
         <v>35.177317425398201</v>
       </c>
-      <c r="M53" s="27">
+      <c r="M53" s="26">
         <f t="shared" si="5"/>
         <v>17.5886587126991</v>
       </c>
@@ -11028,7 +11037,7 @@
       <c r="L54" s="7">
         <v>36.211160069165899</v>
       </c>
-      <c r="M54" s="27">
+      <c r="M54" s="26">
         <f t="shared" si="5"/>
         <v>18.10558003458295</v>
       </c>
@@ -11075,7 +11084,7 @@
       <c r="L55" s="7">
         <v>35.031844330991397</v>
       </c>
-      <c r="M55" s="27">
+      <c r="M55" s="26">
         <f t="shared" si="5"/>
         <v>17.515922165495699</v>
       </c>
@@ -11122,7 +11131,7 @@
       <c r="L56" s="7">
         <v>35.587876279155502</v>
       </c>
-      <c r="M56" s="27">
+      <c r="M56" s="26">
         <f t="shared" si="5"/>
         <v>17.793938139577751</v>
       </c>
@@ -11169,7 +11178,7 @@
       <c r="L57" s="7">
         <v>36.426591966216002</v>
       </c>
-      <c r="M57" s="27">
+      <c r="M57" s="26">
         <f t="shared" si="5"/>
         <v>18.213295983108001</v>
       </c>
@@ -11216,7 +11225,7 @@
       <c r="L58" s="7">
         <v>38.421800843934001</v>
       </c>
-      <c r="M58" s="27">
+      <c r="M58" s="26">
         <f t="shared" si="5"/>
         <v>19.210900421967001</v>
       </c>
@@ -11263,7 +11272,7 @@
       <c r="L59" s="7">
         <v>37.822201146482698</v>
       </c>
-      <c r="M59" s="27">
+      <c r="M59" s="26">
         <f t="shared" si="5"/>
         <v>18.911100573241349</v>
       </c>
@@ -11310,7 +11319,7 @@
       <c r="L60" s="7">
         <v>38.3079842049871</v>
       </c>
-      <c r="M60" s="27">
+      <c r="M60" s="26">
         <f t="shared" si="5"/>
         <v>19.15399210249355</v>
       </c>
@@ -11357,7 +11366,7 @@
       <c r="L61" s="7">
         <v>39.3727871629535</v>
       </c>
-      <c r="M61" s="27">
+      <c r="M61" s="26">
         <f t="shared" si="5"/>
         <v>19.68639358147675</v>
       </c>
@@ -11404,7 +11413,7 @@
       <c r="L62" s="7">
         <v>38.9184782502495</v>
       </c>
-      <c r="M62" s="27">
+      <c r="M62" s="26">
         <f t="shared" si="5"/>
         <v>19.45923912512475</v>
       </c>
@@ -11451,7 +11460,7 @@
       <c r="L63" s="7">
         <v>38.882663185753202</v>
       </c>
-      <c r="M63" s="27">
+      <c r="M63" s="26">
         <f t="shared" si="5"/>
         <v>19.441331592876601</v>
       </c>
@@ -11498,7 +11507,7 @@
       <c r="L64" s="7">
         <v>39.175285363294201</v>
       </c>
-      <c r="M64" s="27">
+      <c r="M64" s="26">
         <f t="shared" si="5"/>
         <v>19.5876426816471</v>
       </c>
@@ -11545,7 +11554,7 @@
       <c r="L65" s="7">
         <v>39.401532726766099</v>
       </c>
-      <c r="M65" s="27">
+      <c r="M65" s="26">
         <f t="shared" si="5"/>
         <v>19.70076636338305</v>
       </c>
@@ -11592,7 +11601,7 @@
       <c r="L66" s="7">
         <v>38.872359957778002</v>
       </c>
-      <c r="M66" s="27">
+      <c r="M66" s="26">
         <f t="shared" si="5"/>
         <v>19.436179978889001</v>
       </c>
@@ -11639,7 +11648,7 @@
       <c r="L67" s="7">
         <v>39.006047958190102</v>
       </c>
-      <c r="M67" s="27">
+      <c r="M67" s="26">
         <f t="shared" si="5"/>
         <v>19.503023979095051</v>
       </c>
@@ -11686,7 +11695,7 @@
       <c r="L68" s="7">
         <v>38.963132550266401</v>
       </c>
-      <c r="M68" s="27">
+      <c r="M68" s="26">
         <f t="shared" si="5"/>
         <v>19.481566275133201</v>
       </c>
@@ -11733,7 +11742,7 @@
       <c r="L69" s="7">
         <v>39.091070960608</v>
       </c>
-      <c r="M69" s="27">
+      <c r="M69" s="26">
         <f t="shared" ref="M69:M132" si="11">L69/2</f>
         <v>19.545535480304</v>
       </c>
@@ -11780,7 +11789,7 @@
       <c r="L70" s="7">
         <v>39.569213004798897</v>
       </c>
-      <c r="M70" s="27">
+      <c r="M70" s="26">
         <f t="shared" si="11"/>
         <v>19.784606502399448</v>
       </c>
@@ -11827,7 +11836,7 @@
       <c r="L71" s="7">
         <v>39.567703367451401</v>
       </c>
-      <c r="M71" s="27">
+      <c r="M71" s="26">
         <f t="shared" si="11"/>
         <v>19.7838516837257</v>
       </c>
@@ -11874,7 +11883,7 @@
       <c r="L72" s="7">
         <v>38.895117323544497</v>
       </c>
-      <c r="M72" s="27">
+      <c r="M72" s="26">
         <f t="shared" si="11"/>
         <v>19.447558661772248</v>
       </c>
@@ -11921,7 +11930,7 @@
       <c r="L73" s="7">
         <v>39.308297745873404</v>
       </c>
-      <c r="M73" s="27">
+      <c r="M73" s="26">
         <f t="shared" si="11"/>
         <v>19.654148872936702</v>
       </c>
@@ -11968,7 +11977,7 @@
       <c r="L74" s="7">
         <v>39.396651975756299</v>
       </c>
-      <c r="M74" s="27">
+      <c r="M74" s="26">
         <f t="shared" si="11"/>
         <v>19.69832598787815</v>
       </c>
@@ -12015,7 +12024,7 @@
       <c r="L75" s="7">
         <v>39.134678334980002</v>
       </c>
-      <c r="M75" s="27">
+      <c r="M75" s="26">
         <f t="shared" si="11"/>
         <v>19.567339167490001</v>
       </c>
@@ -12062,7 +12071,7 @@
       <c r="L76" s="7">
         <v>39.567218282290902</v>
       </c>
-      <c r="M76" s="27">
+      <c r="M76" s="26">
         <f t="shared" si="11"/>
         <v>19.783609141145451</v>
       </c>
@@ -12109,7 +12118,7 @@
       <c r="L77" s="7">
         <v>39.406952416517598</v>
       </c>
-      <c r="M77" s="27">
+      <c r="M77" s="26">
         <f t="shared" si="11"/>
         <v>19.703476208258799</v>
       </c>
@@ -12156,7 +12165,7 @@
       <c r="L78" s="7">
         <v>38.354532801065602</v>
       </c>
-      <c r="M78" s="27">
+      <c r="M78" s="26">
         <f t="shared" si="11"/>
         <v>19.177266400532801</v>
       </c>
@@ -12203,7 +12212,7 @@
       <c r="L79" s="7">
         <v>38.076922695007198</v>
       </c>
-      <c r="M79" s="27">
+      <c r="M79" s="26">
         <f t="shared" si="11"/>
         <v>19.038461347503599</v>
       </c>
@@ -12250,7 +12259,7 @@
       <c r="L80" s="7">
         <v>39.087799790357899</v>
       </c>
-      <c r="M80" s="27">
+      <c r="M80" s="26">
         <f t="shared" si="11"/>
         <v>19.543899895178949</v>
       </c>
@@ -12297,7 +12306,7 @@
       <c r="L81" s="7">
         <v>40.213523501338798</v>
       </c>
-      <c r="M81" s="27">
+      <c r="M81" s="26">
         <f t="shared" si="11"/>
         <v>20.106761750669399</v>
       </c>
@@ -12344,7 +12353,7 @@
       <c r="L82" s="7">
         <v>38.876236546763998</v>
       </c>
-      <c r="M82" s="27">
+      <c r="M82" s="26">
         <f t="shared" si="11"/>
         <v>19.438118273381999</v>
       </c>
@@ -12391,7 +12400,7 @@
       <c r="L83" s="7">
         <v>36.732001500440902</v>
       </c>
-      <c r="M83" s="27">
+      <c r="M83" s="26">
         <f t="shared" si="11"/>
         <v>18.366000750220451</v>
       </c>
@@ -12438,7 +12447,7 @@
       <c r="L84" s="7">
         <v>35.512996461702201</v>
       </c>
-      <c r="M84" s="27">
+      <c r="M84" s="26">
         <f t="shared" si="11"/>
         <v>17.756498230851101</v>
       </c>
@@ -12485,7 +12494,7 @@
       <c r="L85" s="7">
         <v>36.872461613500299</v>
       </c>
-      <c r="M85" s="27">
+      <c r="M85" s="26">
         <f t="shared" si="11"/>
         <v>18.436230806750149</v>
       </c>
@@ -12532,7 +12541,7 @@
       <c r="L86" s="7">
         <v>38.502399090257803</v>
       </c>
-      <c r="M86" s="27">
+      <c r="M86" s="26">
         <f t="shared" si="11"/>
         <v>19.251199545128902</v>
       </c>
@@ -12579,7 +12588,7 @@
       <c r="L87" s="7">
         <v>38.1229757948783</v>
       </c>
-      <c r="M87" s="27">
+      <c r="M87" s="26">
         <f t="shared" si="11"/>
         <v>19.06148789743915</v>
       </c>
@@ -12626,7 +12635,7 @@
       <c r="L88" s="7">
         <v>38.339976333206103</v>
       </c>
-      <c r="M88" s="27">
+      <c r="M88" s="26">
         <f t="shared" si="11"/>
         <v>19.169988166603051</v>
       </c>
@@ -12673,7 +12682,7 @@
       <c r="L89" s="7">
         <v>38.507653116607599</v>
       </c>
-      <c r="M89" s="27">
+      <c r="M89" s="26">
         <f t="shared" si="11"/>
         <v>19.2538265583038</v>
       </c>
@@ -12720,7 +12729,7 @@
       <c r="L90" s="7">
         <v>38.589659616786797</v>
       </c>
-      <c r="M90" s="27">
+      <c r="M90" s="26">
         <f t="shared" si="11"/>
         <v>19.294829808393398</v>
       </c>
@@ -12767,7 +12776,7 @@
       <c r="L91" s="7">
         <v>39.709154558894902</v>
       </c>
-      <c r="M91" s="27">
+      <c r="M91" s="26">
         <f t="shared" si="11"/>
         <v>19.854577279447451</v>
       </c>
@@ -12814,7 +12823,7 @@
       <c r="L92" s="7">
         <v>40.323429514365898</v>
       </c>
-      <c r="M92" s="27">
+      <c r="M92" s="26">
         <f t="shared" si="11"/>
         <v>20.161714757182949</v>
       </c>
@@ -12861,7 +12870,7 @@
       <c r="L93" s="7">
         <v>41.085301438108999</v>
       </c>
-      <c r="M93" s="27">
+      <c r="M93" s="26">
         <f t="shared" si="11"/>
         <v>20.5426507190545</v>
       </c>
@@ -12908,7 +12917,7 @@
       <c r="L94" s="7">
         <v>42.648491890646497</v>
       </c>
-      <c r="M94" s="27">
+      <c r="M94" s="26">
         <f t="shared" si="11"/>
         <v>21.324245945323248</v>
       </c>
@@ -12955,7 +12964,7 @@
       <c r="L95" s="7">
         <v>42.929285508210597</v>
       </c>
-      <c r="M95" s="27">
+      <c r="M95" s="26">
         <f t="shared" si="11"/>
         <v>21.464642754105299</v>
       </c>
@@ -13002,7 +13011,7 @@
       <c r="L96" s="7">
         <v>42.748362656608897</v>
       </c>
-      <c r="M96" s="27">
+      <c r="M96" s="26">
         <f t="shared" si="11"/>
         <v>21.374181328304449</v>
       </c>
@@ -13049,7 +13058,7 @@
       <c r="L97" s="7">
         <v>42.840717994963398</v>
       </c>
-      <c r="M97" s="27">
+      <c r="M97" s="26">
         <f t="shared" si="11"/>
         <v>21.420358997481699</v>
       </c>
@@ -13096,7 +13105,7 @@
       <c r="L98" s="7">
         <v>41.741874497007601</v>
       </c>
-      <c r="M98" s="27">
+      <c r="M98" s="26">
         <f t="shared" si="11"/>
         <v>20.8709372485038</v>
       </c>
@@ -13143,7 +13152,7 @@
       <c r="L99" s="7">
         <v>39.056282675793497</v>
       </c>
-      <c r="M99" s="27">
+      <c r="M99" s="26">
         <f t="shared" si="11"/>
         <v>19.528141337896749</v>
       </c>
@@ -13190,7 +13199,7 @@
       <c r="L100" s="7">
         <v>36.781321961820701</v>
       </c>
-      <c r="M100" s="27">
+      <c r="M100" s="26">
         <f t="shared" si="11"/>
         <v>18.390660980910351</v>
       </c>
@@ -13237,7 +13246,7 @@
       <c r="L101" s="7">
         <v>32.764122810506997</v>
       </c>
-      <c r="M101" s="27">
+      <c r="M101" s="26">
         <f t="shared" si="11"/>
         <v>16.382061405253499</v>
       </c>
@@ -13284,7 +13293,7 @@
       <c r="L102" s="7">
         <v>30.706397086113601</v>
       </c>
-      <c r="M102" s="27">
+      <c r="M102" s="26">
         <f t="shared" si="11"/>
         <v>15.3531985430568</v>
       </c>
@@ -13331,7 +13340,7 @@
       <c r="L103" s="7">
         <v>29.798092131163099</v>
       </c>
-      <c r="M103" s="27">
+      <c r="M103" s="26">
         <f t="shared" si="11"/>
         <v>14.899046065581549</v>
       </c>
@@ -13378,7 +13387,7 @@
       <c r="L104" s="7">
         <v>28.518189896538999</v>
       </c>
-      <c r="M104" s="27">
+      <c r="M104" s="26">
         <f t="shared" si="11"/>
         <v>14.2590949482695</v>
       </c>
@@ -13425,7 +13434,7 @@
       <c r="L105" s="7">
         <v>26.2766368983769</v>
       </c>
-      <c r="M105" s="27">
+      <c r="M105" s="26">
         <f t="shared" si="11"/>
         <v>13.13831844918845</v>
       </c>
@@ -13472,7 +13481,7 @@
       <c r="L106" s="7">
         <v>24.130692254735401</v>
       </c>
-      <c r="M106" s="27">
+      <c r="M106" s="26">
         <f t="shared" si="11"/>
         <v>12.0653461273677</v>
       </c>
@@ -13519,7 +13528,7 @@
       <c r="L107" s="7">
         <v>25.906246658588302</v>
       </c>
-      <c r="M107" s="27">
+      <c r="M107" s="26">
         <f t="shared" si="11"/>
         <v>12.953123329294151</v>
       </c>
@@ -13566,7 +13575,7 @@
       <c r="L108" s="7">
         <v>26.269459379922399</v>
       </c>
-      <c r="M108" s="27">
+      <c r="M108" s="26">
         <f t="shared" si="11"/>
         <v>13.134729689961199</v>
       </c>
@@ -13613,7 +13622,7 @@
       <c r="L109" s="7">
         <v>26.32195265264</v>
       </c>
-      <c r="M109" s="27">
+      <c r="M109" s="26">
         <f t="shared" si="11"/>
         <v>13.16097632632</v>
       </c>
@@ -13660,7 +13669,7 @@
       <c r="L110" s="7">
         <v>27.308231742173401</v>
       </c>
-      <c r="M110" s="27">
+      <c r="M110" s="26">
         <f t="shared" si="11"/>
         <v>13.654115871086701</v>
       </c>
@@ -13707,7 +13716,7 @@
       <c r="L111" s="7">
         <v>29.801634633560901</v>
       </c>
-      <c r="M111" s="27">
+      <c r="M111" s="26">
         <f t="shared" si="11"/>
         <v>14.900817316780451</v>
       </c>
@@ -13754,7 +13763,7 @@
       <c r="L112" s="7">
         <v>31.287818263789202</v>
       </c>
-      <c r="M112" s="27">
+      <c r="M112" s="26">
         <f t="shared" si="11"/>
         <v>15.643909131894601</v>
       </c>
@@ -13801,7 +13810,7 @@
       <c r="L113" s="7">
         <v>33.274405471641202</v>
       </c>
-      <c r="M113" s="27">
+      <c r="M113" s="26">
         <f t="shared" si="11"/>
         <v>16.637202735820601</v>
       </c>
@@ -13848,7 +13857,7 @@
       <c r="L114" s="7">
         <v>34.963808799810202</v>
       </c>
-      <c r="M114" s="27">
+      <c r="M114" s="26">
         <f t="shared" si="11"/>
         <v>17.481904399905101</v>
       </c>
@@ -13895,7 +13904,7 @@
       <c r="L115" s="7">
         <v>35.379279109307603</v>
       </c>
-      <c r="M115" s="27">
+      <c r="M115" s="26">
         <f t="shared" si="11"/>
         <v>17.689639554653802</v>
       </c>
@@ -13942,7 +13951,7 @@
       <c r="L116" s="7">
         <v>38.782641464009899</v>
       </c>
-      <c r="M116" s="27">
+      <c r="M116" s="26">
         <f t="shared" si="11"/>
         <v>19.391320732004949</v>
       </c>
@@ -13989,7 +13998,7 @@
       <c r="L117" s="7">
         <v>36.688171032154798</v>
       </c>
-      <c r="M117" s="27">
+      <c r="M117" s="26">
         <f t="shared" si="11"/>
         <v>18.344085516077399</v>
       </c>
@@ -14036,7 +14045,7 @@
       <c r="L118" s="7">
         <v>37.945226397518297</v>
       </c>
-      <c r="M118" s="27">
+      <c r="M118" s="26">
         <f t="shared" si="11"/>
         <v>18.972613198759149</v>
       </c>
@@ -14083,7 +14092,7 @@
       <c r="L119" s="7">
         <v>38.011539660783797</v>
       </c>
-      <c r="M119" s="27">
+      <c r="M119" s="26">
         <f t="shared" si="11"/>
         <v>19.005769830391898</v>
       </c>
@@ -14130,7 +14139,7 @@
       <c r="L120" s="7">
         <v>38.3444017828553</v>
       </c>
-      <c r="M120" s="27">
+      <c r="M120" s="26">
         <f t="shared" si="11"/>
         <v>19.17220089142765</v>
       </c>
@@ -14177,7 +14186,7 @@
       <c r="L121" s="7">
         <v>36.908698076759201</v>
       </c>
-      <c r="M121" s="27">
+      <c r="M121" s="26">
         <f t="shared" si="11"/>
         <v>18.454349038379601</v>
       </c>
@@ -14224,7 +14233,7 @@
       <c r="L122" s="7">
         <v>36.0725670388087</v>
       </c>
-      <c r="M122" s="27">
+      <c r="M122" s="26">
         <f t="shared" si="11"/>
         <v>18.03628351940435</v>
       </c>
@@ -14271,7 +14280,7 @@
       <c r="L123" s="7">
         <v>37.082220113801903</v>
       </c>
-      <c r="M123" s="27">
+      <c r="M123" s="26">
         <f t="shared" si="11"/>
         <v>18.541110056900951</v>
       </c>
@@ -14318,7 +14327,7 @@
       <c r="L124" s="7">
         <v>36.2495914904028</v>
       </c>
-      <c r="M124" s="27">
+      <c r="M124" s="26">
         <f t="shared" si="11"/>
         <v>18.1247957452014</v>
       </c>
@@ -14365,7 +14374,7 @@
       <c r="L125" s="7">
         <v>37.025078318330699</v>
       </c>
-      <c r="M125" s="27">
+      <c r="M125" s="26">
         <f t="shared" si="11"/>
         <v>18.51253915916535</v>
       </c>
@@ -14412,7 +14421,7 @@
       <c r="L126" s="7">
         <v>37.103884580860701</v>
       </c>
-      <c r="M126" s="27">
+      <c r="M126" s="26">
         <f t="shared" si="11"/>
         <v>18.55194229043035</v>
       </c>
@@ -14459,7 +14468,7 @@
       <c r="L127" s="7">
         <v>36.550541110649903</v>
       </c>
-      <c r="M127" s="27">
+      <c r="M127" s="26">
         <f t="shared" si="11"/>
         <v>18.275270555324951</v>
       </c>
@@ -14506,7 +14515,7 @@
       <c r="L128" s="7">
         <v>36.620907202775598</v>
       </c>
-      <c r="M128" s="27">
+      <c r="M128" s="26">
         <f t="shared" si="11"/>
         <v>18.310453601387799</v>
       </c>
@@ -14553,7 +14562,7 @@
       <c r="L129" s="7">
         <v>38.914815284381</v>
       </c>
-      <c r="M129" s="27">
+      <c r="M129" s="26">
         <f t="shared" si="11"/>
         <v>19.4574076421905</v>
       </c>
@@ -14600,7 +14609,7 @@
       <c r="L130" s="7">
         <v>39.056607763349298</v>
       </c>
-      <c r="M130" s="27">
+      <c r="M130" s="26">
         <f t="shared" si="11"/>
         <v>19.528303881674649</v>
       </c>
@@ -14647,7 +14656,7 @@
       <c r="L131" s="7">
         <v>40.793168921153303</v>
       </c>
-      <c r="M131" s="27">
+      <c r="M131" s="26">
         <f t="shared" si="11"/>
         <v>20.396584460576651</v>
       </c>
@@ -14694,7 +14703,7 @@
       <c r="L132" s="7">
         <v>41.061119496914799</v>
       </c>
-      <c r="M132" s="27">
+      <c r="M132" s="26">
         <f t="shared" si="11"/>
         <v>20.530559748457399</v>
       </c>
@@ -14741,7 +14750,7 @@
       <c r="L133" s="7">
         <v>41.396498938677503</v>
       </c>
-      <c r="M133" s="27">
+      <c r="M133" s="26">
         <f t="shared" ref="M133:M164" si="17">L133/2</f>
         <v>20.698249469338752</v>
       </c>
@@ -14788,7 +14797,7 @@
       <c r="L134" s="7">
         <v>41.179819024237901</v>
       </c>
-      <c r="M134" s="27">
+      <c r="M134" s="26">
         <f t="shared" si="17"/>
         <v>20.58990951211895</v>
       </c>
@@ -14835,7 +14844,7 @@
       <c r="L135" s="7">
         <v>41.130445263618597</v>
       </c>
-      <c r="M135" s="27">
+      <c r="M135" s="26">
         <f t="shared" si="17"/>
         <v>20.565222631809299</v>
       </c>
@@ -14882,7 +14891,7 @@
       <c r="L136" s="7">
         <v>40.564402042899701</v>
       </c>
-      <c r="M136" s="27">
+      <c r="M136" s="26">
         <f t="shared" si="17"/>
         <v>20.28220102144985</v>
       </c>
@@ -14929,7 +14938,7 @@
       <c r="L137" s="7">
         <v>39.314722579702803</v>
       </c>
-      <c r="M137" s="27">
+      <c r="M137" s="26">
         <f t="shared" si="17"/>
         <v>19.657361289851401</v>
       </c>
@@ -14976,7 +14985,7 @@
       <c r="L138" s="7">
         <v>39.320938571571602</v>
       </c>
-      <c r="M138" s="27">
+      <c r="M138" s="26">
         <f t="shared" si="17"/>
         <v>19.660469285785801</v>
       </c>
@@ -15023,7 +15032,7 @@
       <c r="L139" s="7">
         <v>37.702851995931901</v>
       </c>
-      <c r="M139" s="27">
+      <c r="M139" s="26">
         <f t="shared" si="17"/>
         <v>18.851425997965951</v>
       </c>
@@ -15070,7 +15079,7 @@
       <c r="L140" s="7">
         <v>37.084976852489497</v>
       </c>
-      <c r="M140" s="27">
+      <c r="M140" s="26">
         <f t="shared" si="17"/>
         <v>18.542488426244748</v>
       </c>
@@ -15117,7 +15126,7 @@
       <c r="L141" s="7">
         <v>35.932464573404701</v>
       </c>
-      <c r="M141" s="27">
+      <c r="M141" s="26">
         <f t="shared" si="17"/>
         <v>17.966232286702351</v>
       </c>
@@ -15164,7 +15173,7 @@
       <c r="L142" s="7">
         <v>35.2998549407396</v>
       </c>
-      <c r="M142" s="27">
+      <c r="M142" s="26">
         <f t="shared" si="17"/>
         <v>17.6499274703698</v>
       </c>
@@ -15211,7 +15220,7 @@
       <c r="L143" s="7">
         <v>35.881046075599201</v>
       </c>
-      <c r="M143" s="27">
+      <c r="M143" s="26">
         <f t="shared" si="17"/>
         <v>17.940523037799601</v>
       </c>
@@ -15258,7 +15267,7 @@
       <c r="L144" s="7">
         <v>36.356812343967299</v>
       </c>
-      <c r="M144" s="27">
+      <c r="M144" s="26">
         <f t="shared" si="17"/>
         <v>18.178406171983649</v>
       </c>
@@ -15305,7 +15314,7 @@
       <c r="L145" s="7">
         <v>37.079825716622402</v>
       </c>
-      <c r="M145" s="27">
+      <c r="M145" s="26">
         <f t="shared" si="17"/>
         <v>18.539912858311201</v>
       </c>
@@ -15352,7 +15361,7 @@
       <c r="L146" s="7">
         <v>37.447310155198501</v>
       </c>
-      <c r="M146" s="27">
+      <c r="M146" s="26">
         <f t="shared" si="17"/>
         <v>18.723655077599251</v>
       </c>
@@ -15399,7 +15408,7 @@
       <c r="L147" s="7">
         <v>38.344369919442698</v>
       </c>
-      <c r="M147" s="27">
+      <c r="M147" s="26">
         <f t="shared" si="17"/>
         <v>19.172184959721349</v>
       </c>
@@ -15446,7 +15455,7 @@
       <c r="L148" s="7">
         <v>39.362075410733098</v>
       </c>
-      <c r="M148" s="27">
+      <c r="M148" s="26">
         <f t="shared" si="17"/>
         <v>19.681037705366549</v>
       </c>
@@ -15493,7 +15502,7 @@
       <c r="L149" s="7">
         <v>41.2057773458112</v>
       </c>
-      <c r="M149" s="27">
+      <c r="M149" s="26">
         <f t="shared" si="17"/>
         <v>20.6028886729056</v>
       </c>
@@ -15540,7 +15549,7 @@
       <c r="L150" s="7">
         <v>41.184799851873301</v>
       </c>
-      <c r="M150" s="27">
+      <c r="M150" s="26">
         <f t="shared" si="17"/>
         <v>20.59239992593665</v>
       </c>
@@ -15587,7 +15596,7 @@
       <c r="L151" s="7">
         <v>41.163822357920303</v>
       </c>
-      <c r="M151" s="27">
+      <c r="M151" s="26">
         <f t="shared" si="17"/>
         <v>20.581911178960151</v>
       </c>
@@ -15634,7 +15643,7 @@
       <c r="L152" s="7">
         <v>40.228936940110898</v>
       </c>
-      <c r="M152" s="27">
+      <c r="M152" s="26">
         <f t="shared" si="17"/>
         <v>20.114468470055449</v>
       </c>
@@ -15681,7 +15690,7 @@
       <c r="L153" s="7">
         <v>39.5003302025927</v>
       </c>
-      <c r="M153" s="27">
+      <c r="M153" s="26">
         <f t="shared" si="17"/>
         <v>19.75016510129635</v>
       </c>
@@ -15728,7 +15737,7 @@
       <c r="L154" s="7">
         <v>39.051395163878901</v>
       </c>
-      <c r="M154" s="27">
+      <c r="M154" s="26">
         <f t="shared" si="17"/>
         <v>19.52569758193945</v>
       </c>
@@ -15775,7 +15784,7 @@
       <c r="L155" s="7">
         <v>37.865464352577</v>
       </c>
-      <c r="M155" s="27">
+      <c r="M155" s="26">
         <f t="shared" si="17"/>
         <v>18.9327321762885</v>
       </c>
@@ -15822,7 +15831,7 @@
       <c r="L156" s="7">
         <v>36.533946451430403</v>
       </c>
-      <c r="M156" s="27">
+      <c r="M156" s="26">
         <f t="shared" si="17"/>
         <v>18.266973225715201</v>
       </c>
@@ -15869,7 +15878,7 @@
       <c r="L157" s="7">
         <v>36.1923156153712</v>
       </c>
-      <c r="M157" s="27">
+      <c r="M157" s="26">
         <f t="shared" si="17"/>
         <v>18.0961578076856</v>
       </c>
@@ -15916,7 +15925,7 @@
       <c r="L158" s="7">
         <v>24.016438537353</v>
       </c>
-      <c r="M158" s="27">
+      <c r="M158" s="26">
         <f t="shared" si="17"/>
         <v>12.0082192686765</v>
       </c>
@@ -15961,7 +15970,7 @@
         <v>3.3109999999999218</v>
       </c>
       <c r="L159" s="18"/>
-      <c r="M159" s="28">
+      <c r="M159" s="27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -16006,7 +16015,7 @@
         <v>3.20799999999997</v>
       </c>
       <c r="L160" s="18"/>
-      <c r="M160" s="28">
+      <c r="M160" s="27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -16051,7 +16060,7 @@
         <v>3.2210000000000036</v>
       </c>
       <c r="L161" s="18"/>
-      <c r="M161" s="28">
+      <c r="M161" s="27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -16096,7 +16105,7 @@
         <v>3.1779999999999973</v>
       </c>
       <c r="L162" s="18"/>
-      <c r="M162" s="28">
+      <c r="M162" s="27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -16141,7 +16150,7 @@
         <v>3.0810000000000173</v>
       </c>
       <c r="L163" s="18"/>
-      <c r="M163" s="28">
+      <c r="M163" s="27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -16170,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="L164" s="18"/>
-      <c r="M164" s="28">
+      <c r="M164" s="27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>

--- a/sfe322_gcs_analysis/0_SFE_322_RiverBuilder_metrics.xlsx
+++ b/sfe322_gcs_analysis/0_SFE_322_RiverBuilder_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\usu-RiverBuilder\sfe322_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A4D629-10CD-4438-A1D5-A4D5867A69E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB08887-A550-4404-8BFA-8897000074B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22875" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3525" yWindow="2985" windowWidth="12465" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spatial_series" sheetId="2" r:id="rId1"/>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>WSE_bf</t>
-  </si>
-  <si>
-    <t>WSE_bf-Z</t>
-  </si>
-  <si>
-    <t>(WSE_bf - Z) Avg</t>
   </si>
   <si>
     <t>(WSE_base-Z) Min</t>
@@ -188,6 +182,12 @@
   </si>
   <si>
     <t>From trend analysis</t>
+  </si>
+  <si>
+    <t>WSE_bf-WSE_base</t>
+  </si>
+  <si>
+    <t>(WSE_bf - WSE_base) Avg</t>
   </si>
 </sst>
 </file>
@@ -331,10 +331,10 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8249,8 +8249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8312,35 +8312,35 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
@@ -8384,7 +8384,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="22"/>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y3">
         <v>246</v>
@@ -8429,8 +8429,8 @@
         <v>1001.94</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0860000000000127</v>
+        <f>J4-F5</f>
+        <v>1.8400000000000318</v>
       </c>
       <c r="L4" s="7">
         <v>37.985019225768703</v>
@@ -8476,22 +8476,22 @@
         <v>1001.87</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0529999999999973</v>
+        <f t="shared" ref="K5:K68" si="5">J5-F6</f>
+        <v>1.82000000000005</v>
       </c>
       <c r="L5" s="7">
         <v>38.000619937399101</v>
       </c>
       <c r="M5" s="26">
-        <f t="shared" ref="M5:M68" si="5">L5/2</f>
+        <f t="shared" ref="M5:M68" si="6">L5/2</f>
         <v>19.00030996869955</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y5" s="8">
         <f>MIN(H4:H158)</f>
@@ -8537,22 +8537,22 @@
         <v>1001.79</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0009999999999764</v>
+        <f t="shared" si="5"/>
+        <v>1.8149999999999409</v>
       </c>
       <c r="L6" s="7">
         <v>37.513757751759798</v>
       </c>
       <c r="M6" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.756878875879899</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y6" s="8">
         <f>MIN(G4:G158)</f>
@@ -8598,14 +8598,14 @@
         <v>1001.75</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9930000000000518</v>
+        <f t="shared" si="5"/>
+        <v>1.7999999999999545</v>
       </c>
       <c r="L7" s="7">
         <v>36.098999015570499</v>
       </c>
       <c r="M7" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.049499507785249</v>
       </c>
     </row>
@@ -8645,18 +8645,18 @@
         <v>1001.77</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1200000000000045</v>
+        <f t="shared" si="5"/>
+        <v>1.81899999999996</v>
       </c>
       <c r="L8" s="7">
         <v>35.983342410739603</v>
       </c>
       <c r="M8" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.991671205369801</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W8" s="10"/>
       <c r="Y8">
@@ -8702,18 +8702,18 @@
         <v>1001.76</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2019999999999982</v>
+        <f t="shared" si="5"/>
+        <v>1.7980000000000018</v>
       </c>
       <c r="L9" s="7">
         <v>35.009966955760703</v>
       </c>
       <c r="M9" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.504983477880351</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W9" s="10"/>
       <c r="Y9">
@@ -8756,18 +8756,18 @@
         <v>1001.8</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3589999999999236</v>
+        <f t="shared" si="5"/>
+        <v>1.8349999999999227</v>
       </c>
       <c r="L10" s="7">
         <v>34.943612037133299</v>
       </c>
       <c r="M10" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.471806018566649</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W10" s="10"/>
       <c r="Y10">
@@ -8810,14 +8810,14 @@
         <v>1001.82</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="1"/>
-        <v>2.4260000000000446</v>
+        <f t="shared" si="5"/>
+        <v>1.8570000000000846</v>
       </c>
       <c r="L11" s="7">
         <v>35.9144386964511</v>
       </c>
       <c r="M11" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.95721934822555</v>
       </c>
     </row>
@@ -8857,25 +8857,25 @@
         <v>1001.78</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3769999999999527</v>
+        <f t="shared" si="5"/>
+        <v>1.8229999999999791</v>
       </c>
       <c r="L12" s="7">
         <v>34.349248930527601</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.1746244652638</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -8914,14 +8914,14 @@
         <v>1001.68</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2649999999999864</v>
+        <f t="shared" si="5"/>
+        <v>1.7249999999999091</v>
       </c>
       <c r="L13" s="7">
         <v>34.105149242221501</v>
       </c>
       <c r="M13" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.05257462111075</v>
       </c>
     </row>
@@ -8961,25 +8961,25 @@
         <v>1001.6</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1720000000000255</v>
+        <f t="shared" si="5"/>
+        <v>1.6460000000000719</v>
       </c>
       <c r="L14" s="7">
         <v>33.156763971189697</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.578381985594849</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -9018,14 +9018,14 @@
         <v>1001.56</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1039999999999281</v>
+        <f t="shared" si="5"/>
+        <v>1.61099999999999</v>
       </c>
       <c r="L15" s="7">
         <v>33.041093362971303</v>
       </c>
       <c r="M15" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.520546681485651</v>
       </c>
       <c r="V15" s="10"/>
@@ -9068,22 +9068,22 @@
         <v>1001.56</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0179999999999154</v>
+        <f t="shared" si="5"/>
+        <v>1.6139999999999191</v>
       </c>
       <c r="L16" s="7">
         <v>32.124267149537502</v>
       </c>
       <c r="M16" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.062133574768751</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y16" s="11">
         <f>MAX(H4:H158)/2</f>
@@ -9129,25 +9129,25 @@
         <v>1001.62</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0850000000000364</v>
+        <f t="shared" si="5"/>
+        <v>1.7100000000000364</v>
       </c>
       <c r="L17" s="7">
         <v>31.050190457852</v>
       </c>
       <c r="M17" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.525095228926</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="Y17" s="11">
         <f>AVERAGE(K4:K158)</f>
-        <v>3.6709032258064438</v>
+        <v>2.399606451612883</v>
       </c>
       <c r="Z17" t="s">
         <v>10</v>
@@ -9189,24 +9189,24 @@
         <v>1001.42</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="1"/>
-        <v>1.7110000000000127</v>
+        <f t="shared" si="5"/>
+        <v>1.5910000000000082</v>
       </c>
       <c r="L18" s="7">
         <v>31.463278998018801</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.7316394990094</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -9245,14 +9245,14 @@
         <v>1001.2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6000000000000227</v>
+        <f t="shared" si="5"/>
+        <v>1.3860000000000809</v>
       </c>
       <c r="L19" s="7">
         <v>32.733897102554103</v>
       </c>
       <c r="M19" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.366948551277051</v>
       </c>
     </row>
@@ -9292,22 +9292,22 @@
         <v>1001.26</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6419999999999391</v>
+        <f t="shared" si="5"/>
+        <v>1.47199999999998</v>
       </c>
       <c r="L20" s="7">
         <v>32.104804817929399</v>
       </c>
       <c r="M20" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.052402408964699</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="W20" s="10"/>
       <c r="X20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y20">
         <f>72/2</f>
@@ -9353,21 +9353,21 @@
         <v>1001.33</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="1"/>
-        <v>1.7460000000000946</v>
+        <f t="shared" si="5"/>
+        <v>1.5740000000000691</v>
       </c>
       <c r="L21" s="7">
         <v>32.084681786096603</v>
       </c>
       <c r="M21" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.042340893048301</v>
       </c>
       <c r="V21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y21">
         <v>7.5</v>
@@ -9412,14 +9412,14 @@
         <v>1001.32</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="1"/>
-        <v>1.7770000000000437</v>
+        <f t="shared" si="5"/>
+        <v>1.6170000000000755</v>
       </c>
       <c r="L22" s="7">
         <v>32.147039204068001</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.073519602034001</v>
       </c>
     </row>
@@ -9459,22 +9459,22 @@
         <v>1001.32</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="1"/>
-        <v>1.86200000000008</v>
+        <f t="shared" si="5"/>
+        <v>1.6330000000000382</v>
       </c>
       <c r="L23" s="7">
         <v>32.194785560579199</v>
       </c>
       <c r="M23" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.097392780289599</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y23">
         <v>10</v>
@@ -9519,21 +9519,21 @@
         <v>1001.36</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9540000000000646</v>
+        <f t="shared" si="5"/>
+        <v>1.6889999999999645</v>
       </c>
       <c r="L24" s="7">
         <v>32.281968013564303</v>
       </c>
       <c r="M24" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.140984006782151</v>
       </c>
       <c r="V24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -9578,14 +9578,14 @@
         <v>1001.37</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="1"/>
-        <v>1.9210000000000491</v>
+        <f t="shared" si="5"/>
+        <v>1.7069999999999936</v>
       </c>
       <c r="L25" s="7">
         <v>32.341966288517803</v>
       </c>
       <c r="M25" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.170983144258901</v>
       </c>
     </row>
@@ -9625,24 +9625,24 @@
         <v>1001.37</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="1"/>
-        <v>1.8790000000000191</v>
+        <f t="shared" si="5"/>
+        <v>1.7930000000000064</v>
       </c>
       <c r="L26" s="7">
         <v>32.321642978818502</v>
       </c>
       <c r="M26" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.160821489409251</v>
       </c>
       <c r="V26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y26" s="14">
         <v>0.01</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9681,24 +9681,24 @@
         <v>1001.31</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="1"/>
-        <v>1.8279999999999745</v>
+        <f t="shared" si="5"/>
+        <v>1.8559999999999945</v>
       </c>
       <c r="L27" s="7">
         <v>32.301319669097801</v>
       </c>
       <c r="M27" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.1506598345489</v>
       </c>
-      <c r="X27" s="29" t="s">
-        <v>55</v>
+      <c r="X27" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="Y27" s="13">
         <v>1.2E-2</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9737,15 +9737,19 @@
         <v>1001.35</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0049999999999955</v>
+        <f t="shared" si="5"/>
+        <v>1.9560000000000173</v>
       </c>
       <c r="L28" s="7">
         <v>31.363655438077199</v>
       </c>
       <c r="M28" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.6818277190386</v>
+      </c>
+      <c r="Y28">
+        <f>Y27*0.6</f>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,20 +9788,20 @@
         <v>1001.38</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1760000000000446</v>
+        <f t="shared" si="5"/>
+        <v>1.9729999999999563</v>
       </c>
       <c r="L29" s="7">
         <v>31.323125620959502</v>
       </c>
       <c r="M29" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.661562810479751</v>
       </c>
-      <c r="V29" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="W29" s="28"/>
+      <c r="V29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -9835,18 +9839,18 @@
         <v>1001.39</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2930000000000064</v>
+        <f t="shared" si="5"/>
+        <v>1.9879999999999427</v>
       </c>
       <c r="L30" s="7">
         <v>31.282595803822201</v>
       </c>
       <c r="M30" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.6412979019111</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y30" s="8">
         <f>AVERAGE(H4:H158)</f>
@@ -9892,14 +9896,14 @@
         <v>1001.36</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2720000000000482</v>
+        <f t="shared" si="5"/>
+        <v>1.9679999999999609</v>
       </c>
       <c r="L31" s="7">
         <v>31.242065986625899</v>
       </c>
       <c r="M31" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.62103299331295</v>
       </c>
       <c r="V31" t="s">
@@ -9948,18 +9952,18 @@
         <v>1001.34</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2770000000000437</v>
+        <f t="shared" si="5"/>
+        <v>1.9540000000000646</v>
       </c>
       <c r="L32" s="7">
         <v>31.081113180553199</v>
       </c>
       <c r="M32" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.5405565902766</v>
       </c>
       <c r="V32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y32">
         <v>310</v>
@@ -10004,14 +10008,14 @@
         <v>1001.35</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2670000000000528</v>
+        <f t="shared" si="5"/>
+        <v>1.9809999999999945</v>
       </c>
       <c r="L33" s="7">
         <v>31.062974157695901</v>
       </c>
       <c r="M33" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.531487078847951</v>
       </c>
     </row>
@@ -10051,18 +10055,18 @@
         <v>1001.33</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2390000000000327</v>
+        <f t="shared" si="5"/>
+        <v>1.9920000000000755</v>
       </c>
       <c r="L34" s="7">
         <v>30.307832023300598</v>
       </c>
       <c r="M34" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.153916011650299</v>
       </c>
       <c r="V34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y34">
         <v>6.4000000000000003E-3</v>
@@ -10104,18 +10108,18 @@
         <v>1001.29</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2139999999999418</v>
+        <f t="shared" si="5"/>
+        <v>1.9939999999999145</v>
       </c>
       <c r="L35" s="7">
         <v>29.562723251867599</v>
       </c>
       <c r="M35" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.781361625933799</v>
       </c>
       <c r="V35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y35">
         <v>1.8E-3</v>
@@ -10157,18 +10161,18 @@
         <v>1001.25</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1910000000000309</v>
+        <f t="shared" si="5"/>
+        <v>1.9930000000000518</v>
       </c>
       <c r="L36" s="7">
         <v>28.8171950958676</v>
       </c>
       <c r="M36" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.4085975479338</v>
       </c>
       <c r="V36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y36">
         <f>(Y34+Y35)/2</f>
@@ -10211,14 +10215,14 @@
         <v>1001.21</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1910000000000309</v>
+        <f t="shared" si="5"/>
+        <v>2.0120000000000573</v>
       </c>
       <c r="L37" s="7">
         <v>27.452720227488399</v>
       </c>
       <c r="M37" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.7263601137442</v>
       </c>
     </row>
@@ -10258,20 +10262,20 @@
         <v>1001.16</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1309999999999718</v>
+        <f t="shared" si="5"/>
+        <v>2.0079999999999245</v>
       </c>
       <c r="L38" s="7">
         <v>26.608733786304899</v>
       </c>
       <c r="M38" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.30436689315245</v>
       </c>
-      <c r="V38" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="W38" s="28"/>
+      <c r="V38" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="W38" s="29"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -10309,22 +10313,22 @@
         <v>1001.18</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="1"/>
-        <v>2.2210000000000036</v>
+        <f t="shared" si="5"/>
+        <v>2.0209999999999582</v>
       </c>
       <c r="L39" s="7">
         <v>26.505477129404799</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.252738564702399</v>
       </c>
       <c r="V39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y39" s="13"/>
       <c r="Z39" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10363,22 +10367,22 @@
         <v>1001.21</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3150000000000546</v>
+        <f t="shared" si="5"/>
+        <v>2.0540000000000873</v>
       </c>
       <c r="L40" s="7">
         <v>26.365186520797799</v>
       </c>
       <c r="M40" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.1825932603989</v>
       </c>
       <c r="Y40" s="13"/>
       <c r="Z40" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10417,14 +10421,14 @@
         <v>1001.22</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3410000000000082</v>
+        <f t="shared" si="5"/>
+        <v>2.0710000000000264</v>
       </c>
       <c r="L41" s="7">
         <v>25.381668234656999</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.6908341173285</v>
       </c>
       <c r="AA41" s="15"/>
@@ -10465,14 +10469,14 @@
         <v>1001.21</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="1"/>
-        <v>2.3920000000000528</v>
+        <f t="shared" si="5"/>
+        <v>2.0740000000000691</v>
       </c>
       <c r="L42" s="7">
         <v>25.206377949447599</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.6031889747238</v>
       </c>
     </row>
@@ -10512,14 +10516,14 @@
         <v>1001.21</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="1"/>
-        <v>2.4340000000000828</v>
+        <f t="shared" si="5"/>
+        <v>2.0790000000000646</v>
       </c>
       <c r="L43" s="7">
         <v>24.6700022102014</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.3350011051007</v>
       </c>
       <c r="AB43" s="15"/>
@@ -10560,14 +10564,14 @@
         <v>1001.22</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="1"/>
-        <v>2.5240000000000009</v>
+        <f t="shared" si="5"/>
+        <v>2.0900000000000318</v>
       </c>
       <c r="L44" s="7">
         <v>24.876232370855899</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.438116185427949</v>
       </c>
     </row>
@@ -10607,14 +10611,14 @@
         <v>1001.25</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="1"/>
-        <v>2.6219999999999573</v>
+        <f t="shared" si="5"/>
+        <v>2.1209999999999809</v>
       </c>
       <c r="L45" s="7">
         <v>26.168374104283298</v>
       </c>
       <c r="M45" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.084187052141649</v>
       </c>
     </row>
@@ -10654,14 +10658,14 @@
         <v>1001.25</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="1"/>
-        <v>2.7709999999999582</v>
+        <f t="shared" si="5"/>
+        <v>2.1200000000000045</v>
       </c>
       <c r="L46" s="7">
         <v>27.552615894885299</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.77630794744265</v>
       </c>
     </row>
@@ -10701,14 +10705,14 @@
         <v>1001.26</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="1"/>
-        <v>2.9750000000000227</v>
+        <f t="shared" si="5"/>
+        <v>2.1299999999999955</v>
       </c>
       <c r="L47" s="7">
         <v>28.193819151122501</v>
       </c>
       <c r="M47" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.09690957556125</v>
       </c>
     </row>
@@ -10748,14 +10752,14 @@
         <v>1001.27</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="1"/>
-        <v>3.1029999999999518</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L48" s="7">
         <v>28.7735833639547</v>
       </c>
       <c r="M48" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.38679168197735</v>
       </c>
       <c r="W48" s="10"/>
@@ -10796,14 +10800,14 @@
         <v>1001.26</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="1"/>
-        <v>3.1349999999999909</v>
+        <f t="shared" si="5"/>
+        <v>2.1299999999999955</v>
       </c>
       <c r="L49" s="7">
         <v>29.038701640030201</v>
       </c>
       <c r="M49" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.5193508200151</v>
       </c>
     </row>
@@ -10843,14 +10847,14 @@
         <v>1001.26</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="1"/>
-        <v>3.1870000000000118</v>
+        <f t="shared" si="5"/>
+        <v>2.1299999999999955</v>
       </c>
       <c r="L50" s="7">
         <v>32.227280848979497</v>
       </c>
       <c r="M50" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.113640424489748</v>
       </c>
     </row>
@@ -10890,14 +10894,14 @@
         <v>1001.27</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="1"/>
-        <v>3.3779999999999291</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L51" s="7">
         <v>34.245479205460498</v>
       </c>
       <c r="M51" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.122739602730249</v>
       </c>
     </row>
@@ -10937,14 +10941,14 @@
         <v>1001.27</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="1"/>
-        <v>3.4679999999999609</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L52" s="7">
         <v>34.998695119390199</v>
       </c>
       <c r="M52" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.499347559695099</v>
       </c>
     </row>
@@ -10984,14 +10988,14 @@
         <v>1001.27</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="1"/>
-        <v>3.6419999999999391</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L53" s="7">
         <v>35.177317425398201</v>
       </c>
       <c r="M53" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.5886587126991</v>
       </c>
     </row>
@@ -11031,14 +11035,14 @@
         <v>1001.27</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="1"/>
-        <v>3.8849999999999909</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L54" s="7">
         <v>36.211160069165899</v>
       </c>
       <c r="M54" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.10558003458295</v>
       </c>
     </row>
@@ -11078,14 +11082,14 @@
         <v>1001.27</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="1"/>
-        <v>4.0860000000000127</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L55" s="7">
         <v>35.031844330991397</v>
       </c>
       <c r="M55" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.515922165495699</v>
       </c>
     </row>
@@ -11125,14 +11129,14 @@
         <v>1001.27</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="1"/>
-        <v>4.2899999999999636</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L56" s="7">
         <v>35.587876279155502</v>
       </c>
       <c r="M56" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.793938139577751</v>
       </c>
     </row>
@@ -11172,14 +11176,14 @@
         <v>1001.27</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="1"/>
-        <v>4.3880000000000337</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L57" s="7">
         <v>36.426591966216002</v>
       </c>
       <c r="M57" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.213295983108001</v>
       </c>
     </row>
@@ -11219,14 +11223,14 @@
         <v>1001.28</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="1"/>
-        <v>4.3509999999999991</v>
+        <f t="shared" si="5"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L58" s="7">
         <v>38.421800843934001</v>
       </c>
       <c r="M58" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.210900421967001</v>
       </c>
     </row>
@@ -11266,14 +11270,14 @@
         <v>1001.28</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="1"/>
-        <v>4.1809999999999263</v>
+        <f t="shared" si="5"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L59" s="7">
         <v>37.822201146482698</v>
       </c>
       <c r="M59" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.911100573241349</v>
       </c>
     </row>
@@ -11313,14 +11317,14 @@
         <v>1001.28</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="1"/>
-        <v>4.0729999999999791</v>
+        <f t="shared" si="5"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L60" s="7">
         <v>38.3079842049871</v>
       </c>
       <c r="M60" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.15399210249355</v>
       </c>
     </row>
@@ -11360,14 +11364,14 @@
         <v>1001.28</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="1"/>
-        <v>3.9499999999999318</v>
+        <f t="shared" si="5"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L61" s="7">
         <v>39.3727871629535</v>
       </c>
       <c r="M61" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.68639358147675</v>
       </c>
     </row>
@@ -11407,14 +11411,14 @@
         <v>1001.27</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="1"/>
-        <v>3.8009999999999309</v>
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
       </c>
       <c r="L62" s="7">
         <v>38.9184782502495</v>
       </c>
       <c r="M62" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.45923912512475</v>
       </c>
     </row>
@@ -11454,14 +11458,14 @@
         <v>1001.28</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="1"/>
-        <v>3.7319999999999709</v>
+        <f t="shared" si="5"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L63" s="7">
         <v>38.882663185753202</v>
       </c>
       <c r="M63" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.441331592876601</v>
       </c>
     </row>
@@ -11501,14 +11505,14 @@
         <v>1001.28</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="1"/>
-        <v>3.69399999999996</v>
+        <f t="shared" si="5"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L64" s="7">
         <v>39.175285363294201</v>
       </c>
       <c r="M64" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.5876426816471</v>
       </c>
     </row>
@@ -11548,14 +11552,14 @@
         <v>1001.3</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="1"/>
-        <v>3.6979999999999791</v>
+        <f t="shared" si="5"/>
+        <v>2.1699999999999591</v>
       </c>
       <c r="L65" s="7">
         <v>39.401532726766099</v>
       </c>
       <c r="M65" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.70076636338305</v>
       </c>
     </row>
@@ -11595,14 +11599,14 @@
         <v>1001.3</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="1"/>
-        <v>3.7149999999999181</v>
+        <f t="shared" si="5"/>
+        <v>2.1699999999999591</v>
       </c>
       <c r="L66" s="7">
         <v>38.872359957778002</v>
       </c>
       <c r="M66" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.436179978889001</v>
       </c>
     </row>
@@ -11635,21 +11639,21 @@
         <v>27.131899476280299</v>
       </c>
       <c r="I67" s="17">
-        <f t="shared" ref="I67:I130" si="6">H67*0.5</f>
+        <f t="shared" ref="I67:I130" si="7">H67*0.5</f>
         <v>13.56594973814015</v>
       </c>
       <c r="J67" s="7">
         <v>1001.31</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" ref="K67:K130" si="7">J67-C67</f>
-        <v>3.8819999999999482</v>
+        <f t="shared" si="5"/>
+        <v>2.17999999999995</v>
       </c>
       <c r="L67" s="7">
         <v>39.006047958190102</v>
       </c>
       <c r="M67" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.503023979095051</v>
       </c>
     </row>
@@ -11682,21 +11686,21 @@
         <v>26.091325628136499</v>
       </c>
       <c r="I68" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.045662814068249</v>
       </c>
       <c r="J68" s="7">
         <v>1001.32</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="7"/>
-        <v>3.9710000000000036</v>
+        <f t="shared" si="5"/>
+        <v>2.1900000000000546</v>
       </c>
       <c r="L68" s="7">
         <v>38.963132550266401</v>
       </c>
       <c r="M68" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.481566275133201</v>
       </c>
     </row>
@@ -11729,21 +11733,21 @@
         <v>24.9635210532423</v>
       </c>
       <c r="I69" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.48176052662115</v>
       </c>
       <c r="J69" s="7">
         <v>1001.31</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="7"/>
-        <v>3.9099999999999682</v>
+        <f t="shared" ref="K69:K132" si="11">J69-F70</f>
+        <v>2.17999999999995</v>
       </c>
       <c r="L69" s="7">
         <v>39.091070960608</v>
       </c>
       <c r="M69" s="26">
-        <f t="shared" ref="M69:M132" si="11">L69/2</f>
+        <f t="shared" ref="M69:M132" si="12">L69/2</f>
         <v>19.545535480304</v>
       </c>
     </row>
@@ -11776,21 +11780,21 @@
         <v>24.263524761248298</v>
       </c>
       <c r="I70" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.131762380624149</v>
       </c>
       <c r="J70" s="7">
         <v>1001.3</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="7"/>
-        <v>3.7309999999999945</v>
+        <f t="shared" si="11"/>
+        <v>2.1699999999999591</v>
       </c>
       <c r="L70" s="7">
         <v>39.569213004798897</v>
       </c>
       <c r="M70" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.784606502399448</v>
       </c>
     </row>
@@ -11823,21 +11827,21 @@
         <v>25.0135362320637</v>
       </c>
       <c r="I71" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.50676811603185</v>
       </c>
       <c r="J71" s="7">
         <v>1001.29</v>
       </c>
       <c r="K71" s="7">
-        <f t="shared" si="7"/>
-        <v>3.5229999999999109</v>
+        <f t="shared" si="11"/>
+        <v>2.1599999999999682</v>
       </c>
       <c r="L71" s="7">
         <v>39.567703367451401</v>
       </c>
       <c r="M71" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.7838516837257</v>
       </c>
     </row>
@@ -11870,21 +11874,21 @@
         <v>24.977378153044398</v>
       </c>
       <c r="I72" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.488689076522199</v>
       </c>
       <c r="J72" s="7">
         <v>1001.29</v>
       </c>
       <c r="K72" s="7">
-        <f t="shared" si="7"/>
-        <v>3.3229999999999791</v>
+        <f t="shared" si="11"/>
+        <v>2.1599999999999682</v>
       </c>
       <c r="L72" s="7">
         <v>38.895117323544497</v>
       </c>
       <c r="M72" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.447558661772248</v>
       </c>
     </row>
@@ -11917,21 +11921,21 @@
         <v>23.786640227681701</v>
       </c>
       <c r="I73" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.893320113840851</v>
       </c>
       <c r="J73" s="7">
         <v>1001.29</v>
       </c>
       <c r="K73" s="7">
-        <f t="shared" si="7"/>
-        <v>3.2049999999999272</v>
+        <f t="shared" si="11"/>
+        <v>2.1599999999999682</v>
       </c>
       <c r="L73" s="7">
         <v>39.308297745873404</v>
       </c>
       <c r="M73" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.654148872936702</v>
       </c>
     </row>
@@ -11964,21 +11968,21 @@
         <v>23.195587569737398</v>
       </c>
       <c r="I74" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.597793784868699</v>
       </c>
       <c r="J74" s="7">
         <v>1001.29</v>
       </c>
       <c r="K74" s="7">
-        <f t="shared" si="7"/>
-        <v>3.15199999999993</v>
+        <f t="shared" si="11"/>
+        <v>2.1599999999999682</v>
       </c>
       <c r="L74" s="7">
         <v>39.396651975756299</v>
       </c>
       <c r="M74" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.69832598787815</v>
       </c>
     </row>
@@ -12011,21 +12015,21 @@
         <v>22.7721779994143</v>
       </c>
       <c r="I75" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.38608899970715</v>
       </c>
       <c r="J75" s="7">
         <v>1001.28</v>
       </c>
       <c r="K75" s="7">
-        <f t="shared" si="7"/>
-        <v>2.9969999999999573</v>
+        <f t="shared" si="11"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L75" s="7">
         <v>39.134678334980002</v>
       </c>
       <c r="M75" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.567339167490001</v>
       </c>
     </row>
@@ -12058,21 +12062,21 @@
         <v>22.048807418469199</v>
       </c>
       <c r="I76" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.024403709234599</v>
       </c>
       <c r="J76" s="7">
         <v>1001.28</v>
       </c>
       <c r="K76" s="7">
-        <f t="shared" si="7"/>
-        <v>2.8199999999999363</v>
+        <f t="shared" si="11"/>
+        <v>2.1499999999999773</v>
       </c>
       <c r="L76" s="7">
         <v>39.567218282290902</v>
       </c>
       <c r="M76" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.783609141145451</v>
       </c>
     </row>
@@ -12105,21 +12109,21 @@
         <v>22.1979924408522</v>
       </c>
       <c r="I77" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.0989962204261</v>
       </c>
       <c r="J77" s="7">
         <v>1001.27</v>
       </c>
       <c r="K77" s="7">
-        <f t="shared" si="7"/>
-        <v>2.6499999999999773</v>
+        <f t="shared" si="11"/>
+        <v>2.1409999999999627</v>
       </c>
       <c r="L77" s="7">
         <v>39.406952416517598</v>
       </c>
       <c r="M77" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.703476208258799</v>
       </c>
     </row>
@@ -12152,21 +12156,21 @@
         <v>21.3747127806915</v>
       </c>
       <c r="I78" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.68735639034575</v>
       </c>
       <c r="J78" s="7">
         <v>1001.26</v>
       </c>
       <c r="K78" s="7">
-        <f t="shared" si="7"/>
-        <v>2.5209999999999582</v>
+        <f t="shared" si="11"/>
+        <v>2.1340000000000146</v>
       </c>
       <c r="L78" s="7">
         <v>38.354532801065602</v>
       </c>
       <c r="M78" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.177266400532801</v>
       </c>
     </row>
@@ -12199,21 +12203,21 @@
         <v>21.752364034987099</v>
       </c>
       <c r="I79" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.87618201749355</v>
       </c>
       <c r="J79" s="7">
         <v>1001.24</v>
       </c>
       <c r="K79" s="7">
-        <f t="shared" si="7"/>
-        <v>2.4610000000000127</v>
+        <f t="shared" si="11"/>
+        <v>2.1200000000000045</v>
       </c>
       <c r="L79" s="7">
         <v>38.076922695007198</v>
       </c>
       <c r="M79" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.038461347503599</v>
       </c>
     </row>
@@ -12246,21 +12250,21 @@
         <v>20.8257039850788</v>
       </c>
       <c r="I80" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.4128519925394</v>
       </c>
       <c r="J80" s="7">
         <v>1001.23</v>
       </c>
       <c r="K80" s="7">
-        <f t="shared" si="7"/>
-        <v>2.4980000000000473</v>
+        <f t="shared" si="11"/>
+        <v>2.1220000000000709</v>
       </c>
       <c r="L80" s="7">
         <v>39.087799790357899</v>
       </c>
       <c r="M80" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.543899895178949</v>
       </c>
     </row>
@@ -12293,21 +12297,21 @@
         <v>20.946395754016599</v>
       </c>
       <c r="I81" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.4731978770083</v>
       </c>
       <c r="J81" s="7">
         <v>1001.21</v>
       </c>
       <c r="K81" s="7">
-        <f t="shared" si="7"/>
-        <v>2.3740000000000236</v>
+        <f t="shared" si="11"/>
+        <v>2.1380000000000337</v>
       </c>
       <c r="L81" s="7">
         <v>40.213523501338798</v>
       </c>
       <c r="M81" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.106761750669399</v>
       </c>
     </row>
@@ -12340,21 +12344,21 @@
         <v>18.734172124938102</v>
       </c>
       <c r="I82" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3670860624690508</v>
       </c>
       <c r="J82" s="7">
         <v>1001.18</v>
       </c>
       <c r="K82" s="7">
-        <f t="shared" si="7"/>
-        <v>2.2980000000000018</v>
+        <f t="shared" si="11"/>
+        <v>2.2129999999999654</v>
       </c>
       <c r="L82" s="7">
         <v>38.876236546763998</v>
       </c>
       <c r="M82" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.438118273381999</v>
       </c>
     </row>
@@ -12387,21 +12391,21 @@
         <v>18.764109388795699</v>
       </c>
       <c r="I83" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.3820546943978496</v>
       </c>
       <c r="J83" s="7">
         <v>1001.16</v>
       </c>
       <c r="K83" s="7">
-        <f t="shared" si="7"/>
-        <v>2.3519999999999754</v>
+        <f t="shared" si="11"/>
+        <v>2.3260000000000218</v>
       </c>
       <c r="L83" s="7">
         <v>36.732001500440902</v>
       </c>
       <c r="M83" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.366000750220451</v>
       </c>
     </row>
@@ -12434,21 +12438,21 @@
         <v>14.238751091759299</v>
       </c>
       <c r="I84" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.1193755458796497</v>
       </c>
       <c r="J84" s="7">
         <v>1001.16</v>
       </c>
       <c r="K84" s="7">
-        <f t="shared" si="7"/>
-        <v>2.5289999999999964</v>
+        <f t="shared" si="11"/>
+        <v>2.4289999999999736</v>
       </c>
       <c r="L84" s="7">
         <v>35.512996461702201</v>
       </c>
       <c r="M84" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.756498230851101</v>
       </c>
     </row>
@@ -12481,21 +12485,21 @@
         <v>10.757860448217899</v>
       </c>
       <c r="I85" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3789302241089496</v>
       </c>
       <c r="J85" s="7">
         <v>1001.16</v>
       </c>
       <c r="K85" s="7">
-        <f t="shared" si="7"/>
-        <v>2.6100000000000136</v>
+        <f t="shared" si="11"/>
+        <v>2.4649999999999181</v>
       </c>
       <c r="L85" s="7">
         <v>36.872461613500299</v>
       </c>
       <c r="M85" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.436230806750149</v>
       </c>
     </row>
@@ -12528,21 +12532,21 @@
         <v>8.8464710099637998</v>
       </c>
       <c r="I86" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4232355049818999</v>
       </c>
       <c r="J86" s="7">
         <v>1001.15</v>
       </c>
       <c r="K86" s="7">
-        <f t="shared" si="7"/>
-        <v>2.7709999999999582</v>
+        <f t="shared" si="11"/>
+        <v>2.4610000000000127</v>
       </c>
       <c r="L86" s="7">
         <v>38.502399090257803</v>
       </c>
       <c r="M86" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.251199545128902</v>
       </c>
     </row>
@@ -12575,21 +12579,21 @@
         <v>8.7572064809391197</v>
       </c>
       <c r="I87" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3786032404695598</v>
       </c>
       <c r="J87" s="7">
         <v>1001.15</v>
       </c>
       <c r="K87" s="7">
-        <f t="shared" si="7"/>
-        <v>2.8229999999999791</v>
+        <f t="shared" si="11"/>
+        <v>2.4739999999999327</v>
       </c>
       <c r="L87" s="7">
         <v>38.1229757948783</v>
       </c>
       <c r="M87" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.06148789743915</v>
       </c>
     </row>
@@ -12622,21 +12626,21 @@
         <v>9.3611421520335902</v>
       </c>
       <c r="I88" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6805710760167951</v>
       </c>
       <c r="J88" s="7">
         <v>1001.14</v>
       </c>
       <c r="K88" s="7">
-        <f t="shared" si="7"/>
-        <v>2.8479999999999563</v>
+        <f t="shared" si="11"/>
+        <v>2.4850000000000136</v>
       </c>
       <c r="L88" s="7">
         <v>38.339976333206103</v>
       </c>
       <c r="M88" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.169988166603051</v>
       </c>
     </row>
@@ -12669,21 +12673,21 @@
         <v>9.8935096500887401</v>
       </c>
       <c r="I89" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.94675482504437</v>
       </c>
       <c r="J89" s="7">
         <v>1001.12</v>
       </c>
       <c r="K89" s="7">
-        <f t="shared" si="7"/>
-        <v>2.82000000000005</v>
+        <f t="shared" si="11"/>
+        <v>2.4909999999999854</v>
       </c>
       <c r="L89" s="7">
         <v>38.507653116607599</v>
       </c>
       <c r="M89" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.2538265583038</v>
       </c>
     </row>
@@ -12716,21 +12720,21 @@
         <v>10.901683116795301</v>
       </c>
       <c r="I90" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.4508415583976504</v>
       </c>
       <c r="J90" s="7">
         <v>1001.11</v>
       </c>
       <c r="K90" s="7">
-        <f t="shared" si="7"/>
-        <v>2.7870000000000346</v>
+        <f t="shared" si="11"/>
+        <v>2.5650000000000546</v>
       </c>
       <c r="L90" s="7">
         <v>38.589659616786797</v>
       </c>
       <c r="M90" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.294829808393398</v>
       </c>
     </row>
@@ -12763,21 +12767,21 @@
         <v>12.151099166038399</v>
       </c>
       <c r="I91" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.0755495830191997</v>
       </c>
       <c r="J91" s="7">
         <v>1001.09</v>
       </c>
       <c r="K91" s="7">
-        <f t="shared" si="7"/>
-        <v>2.8029999999999973</v>
+        <f t="shared" si="11"/>
+        <v>2.7069999999999936</v>
       </c>
       <c r="L91" s="7">
         <v>39.709154558894902</v>
       </c>
       <c r="M91" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.854577279447451</v>
       </c>
     </row>
@@ -12810,21 +12814,21 @@
         <v>10.570560021959601</v>
       </c>
       <c r="I92" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2852800109798004</v>
       </c>
       <c r="J92" s="7">
         <v>1001.1</v>
       </c>
       <c r="K92" s="7">
-        <f t="shared" si="7"/>
-        <v>2.9460000000000264</v>
+        <f t="shared" si="11"/>
+        <v>2.8490000000000464</v>
       </c>
       <c r="L92" s="7">
         <v>40.323429514365898</v>
       </c>
       <c r="M92" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.161714757182949</v>
       </c>
     </row>
@@ -12857,21 +12861,21 @@
         <v>4.4153045629863898</v>
       </c>
       <c r="I93" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2076522814931949</v>
       </c>
       <c r="J93" s="7">
         <v>1001.1</v>
       </c>
       <c r="K93" s="7">
-        <f t="shared" si="7"/>
-        <v>3.0400000000000773</v>
+        <f t="shared" si="11"/>
+        <v>2.9260000000000446</v>
       </c>
       <c r="L93" s="7">
         <v>41.085301438108999</v>
       </c>
       <c r="M93" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.5426507190545</v>
       </c>
     </row>
@@ -12904,21 +12908,21 @@
         <v>4.9602829610802903</v>
       </c>
       <c r="I94" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4801414805401452</v>
       </c>
       <c r="J94" s="7">
         <v>1001.11</v>
       </c>
       <c r="K94" s="7">
-        <f t="shared" si="7"/>
-        <v>3.1850000000000591</v>
+        <f t="shared" si="11"/>
+        <v>2.9099999999999682</v>
       </c>
       <c r="L94" s="7">
         <v>42.648491890646497</v>
       </c>
       <c r="M94" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.324245945323248</v>
       </c>
     </row>
@@ -12951,21 +12955,21 @@
         <v>4.7792308423704704</v>
       </c>
       <c r="I95" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3896154211852352</v>
       </c>
       <c r="J95" s="7">
         <v>1001.12</v>
       </c>
       <c r="K95" s="7">
-        <f t="shared" si="7"/>
-        <v>3.3909999999999627</v>
+        <f t="shared" si="11"/>
+        <v>2.91700000000003</v>
       </c>
       <c r="L95" s="7">
         <v>42.929285508210597</v>
       </c>
       <c r="M95" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.464642754105299</v>
       </c>
     </row>
@@ -12998,21 +13002,21 @@
         <v>12.7058026279618</v>
       </c>
       <c r="I96" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.3529013139809001</v>
       </c>
       <c r="J96" s="7">
         <v>1001.14</v>
       </c>
       <c r="K96" s="7">
-        <f t="shared" si="7"/>
-        <v>3.6409999999999627</v>
+        <f t="shared" si="11"/>
+        <v>2.9360000000000355</v>
       </c>
       <c r="L96" s="7">
         <v>42.748362656608897</v>
       </c>
       <c r="M96" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.374181328304449</v>
       </c>
     </row>
@@ -13045,21 +13049,21 @@
         <v>17.6676063350425</v>
       </c>
       <c r="I97" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.8338031675212498</v>
       </c>
       <c r="J97" s="7">
         <v>1001.13</v>
       </c>
       <c r="K97" s="7">
-        <f t="shared" si="7"/>
-        <v>3.7630000000000337</v>
+        <f t="shared" si="11"/>
+        <v>2.9249999999999545</v>
       </c>
       <c r="L97" s="7">
         <v>42.840717994963398</v>
       </c>
       <c r="M97" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.420358997481699</v>
       </c>
     </row>
@@ -13092,21 +13096,21 @@
         <v>18.107475540048899</v>
       </c>
       <c r="I98" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0537377700244495</v>
       </c>
       <c r="J98" s="7">
         <v>1001.12</v>
       </c>
       <c r="K98" s="7">
-        <f t="shared" si="7"/>
-        <v>3.7160000000000082</v>
+        <f t="shared" si="11"/>
+        <v>2.9149999999999636</v>
       </c>
       <c r="L98" s="7">
         <v>41.741874497007601</v>
       </c>
       <c r="M98" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.8709372485038</v>
       </c>
     </row>
@@ -13139,21 +13143,21 @@
         <v>18.300471751139099</v>
       </c>
       <c r="I99" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1502358755695496</v>
       </c>
       <c r="J99" s="7">
         <v>1001.11</v>
       </c>
       <c r="K99" s="7">
-        <f t="shared" si="7"/>
-        <v>3.8039999999999736</v>
+        <f t="shared" si="11"/>
+        <v>2.9049999999999727</v>
       </c>
       <c r="L99" s="7">
         <v>39.056282675793497</v>
       </c>
       <c r="M99" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.528141337896749</v>
       </c>
     </row>
@@ -13186,21 +13190,21 @@
         <v>19.734398626902699</v>
       </c>
       <c r="I100" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.8671993134513496</v>
       </c>
       <c r="J100" s="7">
         <v>1001.13</v>
       </c>
       <c r="K100" s="7">
-        <f t="shared" si="7"/>
-        <v>4.0950000000000273</v>
+        <f t="shared" si="11"/>
+        <v>2.9249999999999545</v>
       </c>
       <c r="L100" s="7">
         <v>36.781321961820701</v>
       </c>
       <c r="M100" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.390660980910351</v>
       </c>
     </row>
@@ -13233,21 +13237,21 @@
         <v>18.4560196391534</v>
       </c>
       <c r="I101" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.2280098195767</v>
       </c>
       <c r="J101" s="7">
         <v>1001.14</v>
       </c>
       <c r="K101" s="7">
-        <f t="shared" si="7"/>
-        <v>4.4279999999999973</v>
+        <f t="shared" si="11"/>
+        <v>2.9349999999999454</v>
       </c>
       <c r="L101" s="7">
         <v>32.764122810506997</v>
       </c>
       <c r="M101" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.382061405253499</v>
       </c>
     </row>
@@ -13280,21 +13284,21 @@
         <v>16.9576844676284</v>
       </c>
       <c r="I102" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4788422338142002</v>
       </c>
       <c r="J102" s="7">
         <v>1001.16</v>
       </c>
       <c r="K102" s="7">
-        <f t="shared" si="7"/>
-        <v>4.7469999999999573</v>
+        <f t="shared" si="11"/>
+        <v>2.9560000000000173</v>
       </c>
       <c r="L102" s="7">
         <v>30.706397086113601</v>
       </c>
       <c r="M102" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.3531985430568</v>
       </c>
     </row>
@@ -13327,21 +13331,21 @@
         <v>16.7614195911009</v>
       </c>
       <c r="I103" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3807097955504499</v>
       </c>
       <c r="J103" s="7">
         <v>1001.17</v>
       </c>
       <c r="K103" s="7">
-        <f t="shared" si="7"/>
-        <v>4.8539999999999281</v>
+        <f t="shared" si="11"/>
+        <v>2.9649999999999181</v>
       </c>
       <c r="L103" s="7">
         <v>29.798092131163099</v>
       </c>
       <c r="M103" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.899046065581549</v>
       </c>
     </row>
@@ -13374,21 +13378,21 @@
         <v>15.5889793243764</v>
       </c>
       <c r="I104" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.7944896621881998</v>
       </c>
       <c r="J104" s="7">
         <v>1001.17</v>
       </c>
       <c r="K104" s="7">
-        <f t="shared" si="7"/>
-        <v>4.9660000000000082</v>
+        <f t="shared" si="11"/>
+        <v>2.9649999999999181</v>
       </c>
       <c r="L104" s="7">
         <v>28.518189896538999</v>
       </c>
       <c r="M104" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.2590949482695</v>
       </c>
     </row>
@@ -13421,21 +13425,21 @@
         <v>14.727990105411999</v>
       </c>
       <c r="I105" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.3639950527059996</v>
       </c>
       <c r="J105" s="7">
         <v>1001.17</v>
       </c>
       <c r="K105" s="7">
-        <f t="shared" si="7"/>
-        <v>5.2309999999999945</v>
+        <f t="shared" si="11"/>
+        <v>2.9649999999999181</v>
       </c>
       <c r="L105" s="7">
         <v>26.2766368983769</v>
       </c>
       <c r="M105" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.13831844918845</v>
       </c>
     </row>
@@ -13468,21 +13472,21 @@
         <v>15.8603241039367</v>
       </c>
       <c r="I106" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9301620519683498</v>
       </c>
       <c r="J106" s="7">
         <v>1001.16</v>
       </c>
       <c r="K106" s="7">
-        <f t="shared" si="7"/>
-        <v>5.6229999999999336</v>
+        <f t="shared" si="11"/>
+        <v>2.9549999999999272</v>
       </c>
       <c r="L106" s="7">
         <v>24.130692254735401</v>
       </c>
       <c r="M106" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.0653461273677</v>
       </c>
     </row>
@@ -13515,21 +13519,21 @@
         <v>14.585548757262901</v>
       </c>
       <c r="I107" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2927743786314503</v>
       </c>
       <c r="J107" s="7">
         <v>1001.13</v>
       </c>
       <c r="K107" s="7">
-        <f t="shared" si="7"/>
-        <v>5.7350000000000136</v>
+        <f t="shared" si="11"/>
+        <v>2.9249999999999545</v>
       </c>
       <c r="L107" s="7">
         <v>25.906246658588302</v>
       </c>
       <c r="M107" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.953123329294151</v>
       </c>
     </row>
@@ -13562,21 +13566,21 @@
         <v>14.9688812667875</v>
       </c>
       <c r="I108" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4844406333937501</v>
       </c>
       <c r="J108" s="7">
         <v>1001.1</v>
       </c>
       <c r="K108" s="7">
-        <f t="shared" si="7"/>
-        <v>5.8970000000000482</v>
+        <f t="shared" si="11"/>
+        <v>2.8949999999999818</v>
       </c>
       <c r="L108" s="7">
         <v>26.269459379922399</v>
       </c>
       <c r="M108" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.134729689961199</v>
       </c>
     </row>
@@ -13609,21 +13613,21 @@
         <v>13.243987748694201</v>
       </c>
       <c r="I109" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.6219938743471003</v>
       </c>
       <c r="J109" s="7">
         <v>1001.09</v>
       </c>
       <c r="K109" s="7">
-        <f t="shared" si="7"/>
-        <v>6.0880000000000791</v>
+        <f t="shared" si="11"/>
+        <v>2.8849999999999909</v>
       </c>
       <c r="L109" s="7">
         <v>26.32195265264</v>
       </c>
       <c r="M109" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.16097632632</v>
       </c>
     </row>
@@ -13656,21 +13660,21 @@
         <v>14.478775226571299</v>
       </c>
       <c r="I110" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2393876132856496</v>
       </c>
       <c r="J110" s="7">
         <v>1001.07</v>
       </c>
       <c r="K110" s="7">
-        <f t="shared" si="7"/>
-        <v>6.0780000000000882</v>
+        <f t="shared" si="11"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L110" s="7">
         <v>27.308231742173401</v>
       </c>
       <c r="M110" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.654115871086701</v>
       </c>
     </row>
@@ -13703,21 +13707,21 @@
         <v>14.0401407273826</v>
       </c>
       <c r="I111" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0200703636912998</v>
       </c>
       <c r="J111" s="7">
         <v>1001.07</v>
       </c>
       <c r="K111" s="7">
-        <f t="shared" si="7"/>
-        <v>6.1230000000000473</v>
+        <f t="shared" si="11"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L111" s="7">
         <v>29.801634633560901</v>
       </c>
       <c r="M111" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.900817316780451</v>
       </c>
     </row>
@@ -13750,21 +13754,21 @@
         <v>15.922666490343</v>
       </c>
       <c r="I112" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.9613332451714998</v>
       </c>
       <c r="J112" s="7">
         <v>1001.07</v>
       </c>
       <c r="K112" s="7">
-        <f t="shared" si="7"/>
-        <v>6.2690000000000055</v>
+        <f t="shared" si="11"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L112" s="7">
         <v>31.287818263789202</v>
       </c>
       <c r="M112" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.643909131894601</v>
       </c>
     </row>
@@ -13797,21 +13801,21 @@
         <v>16.759845043263301</v>
       </c>
       <c r="I113" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.3799225216316504</v>
       </c>
       <c r="J113" s="7">
         <v>1001.07</v>
       </c>
       <c r="K113" s="7">
-        <f t="shared" si="7"/>
-        <v>6.289000000000101</v>
+        <f t="shared" si="11"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L113" s="7">
         <v>33.274405471641202</v>
       </c>
       <c r="M113" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.637202735820601</v>
       </c>
     </row>
@@ -13844,21 +13848,21 @@
         <v>18.394244643369301</v>
       </c>
       <c r="I114" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1971223216846507</v>
       </c>
       <c r="J114" s="7">
         <v>1001.06</v>
       </c>
       <c r="K114" s="7">
-        <f t="shared" si="7"/>
-        <v>6.3789999999999054</v>
+        <f t="shared" si="11"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L114" s="7">
         <v>34.963808799810202</v>
       </c>
       <c r="M114" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.481904399905101</v>
       </c>
     </row>
@@ -13891,21 +13895,21 @@
         <v>18.220320484268498</v>
       </c>
       <c r="I115" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.1101602421342491</v>
       </c>
       <c r="J115" s="7">
         <v>1001.06</v>
       </c>
       <c r="K115" s="7">
-        <f t="shared" si="7"/>
-        <v>6.3059999999999263</v>
+        <f t="shared" si="11"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L115" s="7">
         <v>35.379279109307603</v>
       </c>
       <c r="M115" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.689639554653802</v>
       </c>
     </row>
@@ -13938,21 +13942,21 @@
         <v>17.584176973638499</v>
       </c>
       <c r="I116" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.7920884868192495</v>
       </c>
       <c r="J116" s="7">
         <v>1001.06</v>
       </c>
       <c r="K116" s="7">
-        <f t="shared" si="7"/>
-        <v>6.0879999999999654</v>
+        <f t="shared" si="11"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L116" s="7">
         <v>38.782641464009899</v>
       </c>
       <c r="M116" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.391320732004949</v>
       </c>
     </row>
@@ -13985,21 +13989,21 @@
         <v>19.800841326268301</v>
       </c>
       <c r="I117" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9004206631341507</v>
       </c>
       <c r="J117" s="7">
         <v>1001.08</v>
       </c>
       <c r="K117" s="7">
-        <f t="shared" si="7"/>
-        <v>6.1800000000000637</v>
+        <f t="shared" si="11"/>
+        <v>2.875</v>
       </c>
       <c r="L117" s="7">
         <v>36.688171032154798</v>
       </c>
       <c r="M117" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.344085516077399</v>
       </c>
     </row>
@@ -14032,21 +14036,21 @@
         <v>20.009929458553898</v>
       </c>
       <c r="I118" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.004964729276949</v>
       </c>
       <c r="J118" s="7">
         <v>1001.08</v>
       </c>
       <c r="K118" s="7">
-        <f t="shared" si="7"/>
-        <v>6.0950000000000273</v>
+        <f t="shared" si="11"/>
+        <v>2.875</v>
       </c>
       <c r="L118" s="7">
         <v>37.945226397518297</v>
       </c>
       <c r="M118" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.972613198759149</v>
       </c>
     </row>
@@ -14079,21 +14083,21 @@
         <v>20.531377603480401</v>
       </c>
       <c r="I119" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.2656888017402</v>
       </c>
       <c r="J119" s="7">
         <v>1001.08</v>
       </c>
       <c r="K119" s="7">
-        <f t="shared" si="7"/>
-        <v>5.9340000000000828</v>
+        <f t="shared" si="11"/>
+        <v>2.875</v>
       </c>
       <c r="L119" s="7">
         <v>38.011539660783797</v>
       </c>
       <c r="M119" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.005769830391898</v>
       </c>
     </row>
@@ -14126,21 +14130,21 @@
         <v>21.1140934913537</v>
       </c>
       <c r="I120" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.55704674567685</v>
       </c>
       <c r="J120" s="7">
         <v>1001.08</v>
       </c>
       <c r="K120" s="7">
-        <f t="shared" si="7"/>
-        <v>5.9290000000000873</v>
+        <f t="shared" si="11"/>
+        <v>2.875</v>
       </c>
       <c r="L120" s="7">
         <v>38.3444017828553</v>
       </c>
       <c r="M120" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.17220089142765</v>
       </c>
     </row>
@@ -14173,21 +14177,21 @@
         <v>19.551859976185799</v>
       </c>
       <c r="I121" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.7759299880928996</v>
       </c>
       <c r="J121" s="7">
         <v>1001.08</v>
       </c>
       <c r="K121" s="7">
-        <f t="shared" si="7"/>
-        <v>5.6720000000000255</v>
+        <f t="shared" si="11"/>
+        <v>2.875</v>
       </c>
       <c r="L121" s="7">
         <v>36.908698076759201</v>
       </c>
       <c r="M121" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.454349038379601</v>
       </c>
     </row>
@@ -14220,21 +14224,21 @@
         <v>18.889347083698301</v>
       </c>
       <c r="I122" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.4446735418491503</v>
       </c>
       <c r="J122" s="7">
         <v>1001.08</v>
       </c>
       <c r="K122" s="7">
-        <f t="shared" si="7"/>
-        <v>5.6630000000000109</v>
+        <f t="shared" si="11"/>
+        <v>2.875</v>
       </c>
       <c r="L122" s="7">
         <v>36.0725670388087</v>
       </c>
       <c r="M122" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.03628351940435</v>
       </c>
     </row>
@@ -14267,21 +14271,21 @@
         <v>20.890831559229799</v>
       </c>
       <c r="I123" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.445415779614899</v>
       </c>
       <c r="J123" s="7">
         <v>1001.1</v>
       </c>
       <c r="K123" s="7">
-        <f t="shared" si="7"/>
-        <v>5.9519999999999982</v>
+        <f t="shared" si="11"/>
+        <v>2.8949999999999818</v>
       </c>
       <c r="L123" s="7">
         <v>37.082220113801903</v>
       </c>
       <c r="M123" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.541110056900951</v>
       </c>
     </row>
@@ -14314,21 +14318,21 @@
         <v>21.450139351562601</v>
       </c>
       <c r="I124" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.725069675781301</v>
       </c>
       <c r="J124" s="7">
         <v>1001.11</v>
       </c>
       <c r="K124" s="7">
-        <f t="shared" si="7"/>
-        <v>6.0539999999999736</v>
+        <f t="shared" si="11"/>
+        <v>2.9049999999999727</v>
       </c>
       <c r="L124" s="7">
         <v>36.2495914904028</v>
       </c>
       <c r="M124" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.1247957452014</v>
       </c>
     </row>
@@ -14361,21 +14365,21 @@
         <v>22.058160809954899</v>
       </c>
       <c r="I125" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.029080404977449</v>
       </c>
       <c r="J125" s="7">
         <v>1001.1</v>
       </c>
       <c r="K125" s="7">
-        <f t="shared" si="7"/>
-        <v>5.5819999999999936</v>
+        <f t="shared" si="11"/>
+        <v>2.8949999999999818</v>
       </c>
       <c r="L125" s="7">
         <v>37.025078318330699</v>
       </c>
       <c r="M125" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.51253915916535</v>
       </c>
     </row>
@@ -14408,21 +14412,21 @@
         <v>23.509170292139501</v>
       </c>
       <c r="I126" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.754585146069751</v>
       </c>
       <c r="J126" s="7">
         <v>1001.07</v>
       </c>
       <c r="K126" s="7">
-        <f t="shared" si="7"/>
-        <v>4.9680000000000746</v>
+        <f t="shared" si="11"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L126" s="7">
         <v>37.103884580860701</v>
       </c>
       <c r="M126" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.55194229043035</v>
       </c>
     </row>
@@ -14455,21 +14459,21 @@
         <v>23.142525103556402</v>
       </c>
       <c r="I127" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.571262551778201</v>
       </c>
       <c r="J127" s="7">
         <v>1001.07</v>
       </c>
       <c r="K127" s="7">
-        <f t="shared" si="7"/>
-        <v>4.95900000000006</v>
+        <f t="shared" si="11"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L127" s="7">
         <v>36.550541110649903</v>
       </c>
       <c r="M127" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.275270555324951</v>
       </c>
     </row>
@@ -14502,21 +14506,21 @@
         <v>22.254454077286098</v>
       </c>
       <c r="I128" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.127227038643049</v>
       </c>
       <c r="J128" s="7">
         <v>1001.07</v>
       </c>
       <c r="K128" s="7">
-        <f t="shared" si="7"/>
-        <v>5.0460000000000491</v>
+        <f t="shared" si="11"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L128" s="7">
         <v>36.620907202775598</v>
       </c>
       <c r="M128" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.310453601387799</v>
       </c>
     </row>
@@ -14549,21 +14553,21 @@
         <v>21.673232920977402</v>
       </c>
       <c r="I129" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.836616460488701</v>
       </c>
       <c r="J129" s="7">
         <v>1001.06</v>
       </c>
       <c r="K129" s="7">
-        <f t="shared" si="7"/>
-        <v>5.1219999999999573</v>
+        <f t="shared" si="11"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L129" s="7">
         <v>38.914815284381</v>
       </c>
       <c r="M129" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.4574076421905</v>
       </c>
     </row>
@@ -14596,21 +14600,21 @@
         <v>20.858923157245201</v>
       </c>
       <c r="I130" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.4294615786226</v>
       </c>
       <c r="J130" s="7">
         <v>1001.06</v>
       </c>
       <c r="K130" s="7">
-        <f t="shared" si="7"/>
-        <v>5.2469999999999573</v>
+        <f t="shared" si="11"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L130" s="7">
         <v>39.056607763349298</v>
       </c>
       <c r="M130" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.528303881674649</v>
       </c>
     </row>
@@ -14643,21 +14647,21 @@
         <v>17.091551741022499</v>
       </c>
       <c r="I131" s="17">
-        <f t="shared" ref="I131:I164" si="12">H131*0.5</f>
+        <f t="shared" ref="I131:I164" si="13">H131*0.5</f>
         <v>8.5457758705112497</v>
       </c>
       <c r="J131" s="7">
         <v>1001.06</v>
       </c>
       <c r="K131" s="7">
-        <f t="shared" ref="K131:K164" si="13">J131-C131</f>
-        <v>5.3979999999999109</v>
+        <f t="shared" si="11"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L131" s="7">
         <v>40.793168921153303</v>
       </c>
       <c r="M131" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.396584460576651</v>
       </c>
     </row>
@@ -14690,21 +14694,21 @@
         <v>17.492657016621401</v>
       </c>
       <c r="I132" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.7463285083107003</v>
       </c>
       <c r="J132" s="7">
         <v>1001.05</v>
       </c>
       <c r="K132" s="7">
-        <f t="shared" si="13"/>
-        <v>5.2319999999999709</v>
+        <f t="shared" si="11"/>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L132" s="7">
         <v>41.061119496914799</v>
       </c>
       <c r="M132" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.530559748457399</v>
       </c>
     </row>
@@ -14737,21 +14741,21 @@
         <v>18.131857829994601</v>
       </c>
       <c r="I133" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0659289149973006</v>
       </c>
       <c r="J133" s="7">
         <v>1001.05</v>
       </c>
       <c r="K133" s="7">
-        <f t="shared" si="13"/>
-        <v>5.1579999999999018</v>
+        <f t="shared" ref="K133:K164" si="17">J133-F134</f>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L133" s="7">
         <v>41.396498938677503</v>
       </c>
       <c r="M133" s="26">
-        <f t="shared" ref="M133:M164" si="17">L133/2</f>
+        <f t="shared" ref="M133:M164" si="18">L133/2</f>
         <v>20.698249469338752</v>
       </c>
     </row>
@@ -14784,21 +14788,21 @@
         <v>17.9224322884656</v>
       </c>
       <c r="I134" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9612161442328002</v>
       </c>
       <c r="J134" s="7">
         <v>1001.04</v>
       </c>
       <c r="K134" s="7">
-        <f t="shared" si="13"/>
-        <v>5.0839999999999463</v>
+        <f t="shared" si="17"/>
+        <v>2.8349999999999227</v>
       </c>
       <c r="L134" s="7">
         <v>41.179819024237901</v>
       </c>
       <c r="M134" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.58990951211895</v>
       </c>
     </row>
@@ -14831,21 +14835,21 @@
         <v>19.398540609145901</v>
       </c>
       <c r="I135" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6992703045729503</v>
       </c>
       <c r="J135" s="7">
         <v>1001.03</v>
       </c>
       <c r="K135" s="7">
-        <f t="shared" si="13"/>
-        <v>4.9259999999999309</v>
+        <f t="shared" si="17"/>
+        <v>2.8249999999999318</v>
       </c>
       <c r="L135" s="7">
         <v>41.130445263618597</v>
       </c>
       <c r="M135" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.565222631809299</v>
       </c>
     </row>
@@ -14878,21 +14882,21 @@
         <v>21.8611713905022</v>
       </c>
       <c r="I136" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.9305856952511</v>
       </c>
       <c r="J136" s="7">
         <v>1001.04</v>
       </c>
       <c r="K136" s="7">
-        <f t="shared" si="13"/>
-        <v>4.9489999999999554</v>
+        <f t="shared" si="17"/>
+        <v>2.8349999999999227</v>
       </c>
       <c r="L136" s="7">
         <v>40.564402042899701</v>
       </c>
       <c r="M136" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.28220102144985</v>
       </c>
     </row>
@@ -14925,21 +14929,21 @@
         <v>23.552365921105899</v>
       </c>
       <c r="I137" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.77618296055295</v>
       </c>
       <c r="J137" s="7">
         <v>1001.04</v>
       </c>
       <c r="K137" s="7">
-        <f t="shared" si="13"/>
-        <v>5.0879999999999654</v>
+        <f t="shared" si="17"/>
+        <v>2.8349999999999227</v>
       </c>
       <c r="L137" s="7">
         <v>39.314722579702803</v>
       </c>
       <c r="M137" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.657361289851401</v>
       </c>
     </row>
@@ -14972,21 +14976,21 @@
         <v>24.1047692442583</v>
       </c>
       <c r="I138" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.05238462212915</v>
       </c>
       <c r="J138" s="7">
         <v>1001.05</v>
       </c>
       <c r="K138" s="7">
-        <f t="shared" si="13"/>
-        <v>5.24899999999991</v>
+        <f t="shared" si="17"/>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L138" s="7">
         <v>39.320938571571602</v>
       </c>
       <c r="M138" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.660469285785801</v>
       </c>
     </row>
@@ -15019,21 +15023,21 @@
         <v>25.530384690386398</v>
       </c>
       <c r="I139" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.765192345193199</v>
       </c>
       <c r="J139" s="7">
         <v>1001.05</v>
       </c>
       <c r="K139" s="7">
-        <f t="shared" si="13"/>
-        <v>5.36099999999999</v>
+        <f t="shared" si="17"/>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L139" s="7">
         <v>37.702851995931901</v>
       </c>
       <c r="M139" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.851425997965951</v>
       </c>
     </row>
@@ -15066,21 +15070,21 @@
         <v>26.106290593234899</v>
       </c>
       <c r="I140" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.053145296617449</v>
       </c>
       <c r="J140" s="7">
         <v>1001.06</v>
       </c>
       <c r="K140" s="7">
-        <f t="shared" si="13"/>
-        <v>5.2819999999999254</v>
+        <f t="shared" si="17"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L140" s="7">
         <v>37.084976852489497</v>
       </c>
       <c r="M140" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.542488426244748</v>
       </c>
     </row>
@@ -15113,21 +15117,21 @@
         <v>27.097975947151099</v>
       </c>
       <c r="I141" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.548987973575549</v>
       </c>
       <c r="J141" s="7">
         <v>1001.05</v>
       </c>
       <c r="K141" s="7">
-        <f t="shared" si="13"/>
-        <v>5.0919999999999845</v>
+        <f t="shared" si="17"/>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L141" s="7">
         <v>35.932464573404701</v>
       </c>
       <c r="M141" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17.966232286702351</v>
       </c>
     </row>
@@ -15160,21 +15164,21 @@
         <v>26.105319834567901</v>
       </c>
       <c r="I142" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.05265991728395</v>
       </c>
       <c r="J142" s="7">
         <v>1001.05</v>
       </c>
       <c r="K142" s="7">
-        <f t="shared" si="13"/>
-        <v>4.9569999999999936</v>
+        <f t="shared" si="17"/>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L142" s="7">
         <v>35.2998549407396</v>
       </c>
       <c r="M142" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17.6499274703698</v>
       </c>
     </row>
@@ -15207,21 +15211,21 @@
         <v>26.0202335692139</v>
       </c>
       <c r="I143" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13.01011678460695</v>
       </c>
       <c r="J143" s="7">
         <v>1001.05</v>
       </c>
       <c r="K143" s="7">
-        <f t="shared" si="13"/>
-        <v>4.8069999999999027</v>
+        <f t="shared" si="17"/>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L143" s="7">
         <v>35.881046075599201</v>
       </c>
       <c r="M143" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17.940523037799601</v>
       </c>
     </row>
@@ -15254,21 +15258,21 @@
         <v>25.994274718687901</v>
       </c>
       <c r="I144" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.997137359343951</v>
       </c>
       <c r="J144" s="7">
         <v>1001.05</v>
       </c>
       <c r="K144" s="7">
-        <f t="shared" si="13"/>
-        <v>4.7149999999999181</v>
+        <f t="shared" si="17"/>
+        <v>2.8449999999999136</v>
       </c>
       <c r="L144" s="7">
         <v>36.356812343967299</v>
       </c>
       <c r="M144" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.178406171983649</v>
       </c>
     </row>
@@ -15301,21 +15305,21 @@
         <v>25.4818018628388</v>
       </c>
       <c r="I145" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.7409009314194</v>
       </c>
       <c r="J145" s="7">
         <v>1001.06</v>
       </c>
       <c r="K145" s="7">
-        <f t="shared" si="13"/>
-        <v>4.6179999999999382</v>
+        <f t="shared" si="17"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L145" s="7">
         <v>37.079825716622402</v>
       </c>
       <c r="M145" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.539912858311201</v>
       </c>
     </row>
@@ -15348,21 +15352,21 @@
         <v>25.698451903108399</v>
       </c>
       <c r="I146" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.8492259515542</v>
       </c>
       <c r="J146" s="7">
         <v>1001.06</v>
       </c>
       <c r="K146" s="7">
-        <f t="shared" si="13"/>
-        <v>4.6009999999999991</v>
+        <f t="shared" si="17"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L146" s="7">
         <v>37.447310155198501</v>
       </c>
       <c r="M146" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.723655077599251</v>
       </c>
     </row>
@@ -15395,21 +15399,21 @@
         <v>24.8800068065113</v>
       </c>
       <c r="I147" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.44000340325565</v>
       </c>
       <c r="J147" s="7">
         <v>1001.06</v>
       </c>
       <c r="K147" s="7">
-        <f t="shared" si="13"/>
-        <v>4.5699999999999363</v>
+        <f t="shared" si="17"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L147" s="7">
         <v>38.344369919442698</v>
       </c>
       <c r="M147" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.172184959721349</v>
       </c>
     </row>
@@ -15442,21 +15446,21 @@
         <v>23.842658399433802</v>
       </c>
       <c r="I148" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.921329199716901</v>
       </c>
       <c r="J148" s="7">
         <v>1001.06</v>
       </c>
       <c r="K148" s="7">
-        <f t="shared" si="13"/>
-        <v>4.4919999999999618</v>
+        <f t="shared" si="17"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L148" s="7">
         <v>39.362075410733098</v>
       </c>
       <c r="M148" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.681037705366549</v>
       </c>
     </row>
@@ -15489,21 +15493,21 @@
         <v>22.818345833259301</v>
       </c>
       <c r="I149" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.40917291662965</v>
       </c>
       <c r="J149" s="7">
         <v>1001.07</v>
       </c>
       <c r="K149" s="7">
-        <f t="shared" si="13"/>
-        <v>4.3670000000000755</v>
+        <f t="shared" si="17"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L149" s="7">
         <v>41.2057773458112</v>
       </c>
       <c r="M149" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.6028886729056</v>
       </c>
     </row>
@@ -15536,21 +15540,21 @@
         <v>23.405832312333501</v>
       </c>
       <c r="I150" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.702916156166751</v>
       </c>
       <c r="J150" s="7">
         <v>1001.06</v>
       </c>
       <c r="K150" s="7">
-        <f t="shared" si="13"/>
-        <v>4.20799999999997</v>
+        <f t="shared" si="17"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L150" s="7">
         <v>41.184799851873301</v>
       </c>
       <c r="M150" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.59239992593665</v>
       </c>
     </row>
@@ -15583,21 +15587,21 @@
         <v>23.314901481665199</v>
       </c>
       <c r="I151" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.6574507408326</v>
       </c>
       <c r="J151" s="7">
         <v>1001.06</v>
       </c>
       <c r="K151" s="7">
-        <f t="shared" si="13"/>
-        <v>4.1129999999999427</v>
+        <f t="shared" si="17"/>
+        <v>2.8549999999999045</v>
       </c>
       <c r="L151" s="7">
         <v>41.163822357920303</v>
       </c>
       <c r="M151" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.581911178960151</v>
       </c>
     </row>
@@ -15630,21 +15634,21 @@
         <v>20.121258840591999</v>
       </c>
       <c r="I152" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.060629420295999</v>
       </c>
       <c r="J152" s="7">
         <v>1001.07</v>
       </c>
       <c r="K152" s="7">
-        <f t="shared" si="13"/>
-        <v>4.0490000000000919</v>
+        <f t="shared" si="17"/>
+        <v>2.8650000000000091</v>
       </c>
       <c r="L152" s="7">
         <v>40.228936940110898</v>
       </c>
       <c r="M152" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.114468470055449</v>
       </c>
     </row>
@@ -15677,21 +15681,21 @@
         <v>16.9775042163844</v>
       </c>
       <c r="I153" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4887521081921999</v>
       </c>
       <c r="J153" s="7">
         <v>1001.06</v>
       </c>
       <c r="K153" s="7">
-        <f t="shared" si="13"/>
-        <v>3.7829999999999018</v>
+        <f t="shared" si="17"/>
+        <v>2.8559999999999945</v>
       </c>
       <c r="L153" s="7">
         <v>39.5003302025927</v>
       </c>
       <c r="M153" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.75016510129635</v>
       </c>
     </row>
@@ -15724,21 +15728,21 @@
         <v>15.2314560214993</v>
       </c>
       <c r="I154" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6157280107496499</v>
       </c>
       <c r="J154" s="7">
         <v>1001.05</v>
       </c>
       <c r="K154" s="7">
-        <f t="shared" si="13"/>
-        <v>3.5729999999999791</v>
+        <f t="shared" si="17"/>
+        <v>2.8460000000000036</v>
       </c>
       <c r="L154" s="7">
         <v>39.051395163878901</v>
       </c>
       <c r="M154" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.52569758193945</v>
       </c>
     </row>
@@ -15771,21 +15775,21 @@
         <v>14.399110849308601</v>
       </c>
       <c r="I155" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1995554246543003</v>
       </c>
       <c r="J155" s="7">
         <v>1001.04</v>
       </c>
       <c r="K155" s="7">
-        <f t="shared" si="13"/>
-        <v>3.4589999999999463</v>
+        <f t="shared" si="17"/>
+        <v>2.8360000000000127</v>
       </c>
       <c r="L155" s="7">
         <v>37.865464352577</v>
       </c>
       <c r="M155" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.9327321762885</v>
       </c>
     </row>
@@ -15818,21 +15822,21 @@
         <v>14.696832207541901</v>
       </c>
       <c r="I156" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3484161037709503</v>
       </c>
       <c r="J156" s="7">
         <v>1001.04</v>
       </c>
       <c r="K156" s="7">
-        <f t="shared" si="13"/>
-        <v>3.44399999999996</v>
+        <f t="shared" si="17"/>
+        <v>2.8360000000000127</v>
       </c>
       <c r="L156" s="7">
         <v>36.533946451430403</v>
       </c>
       <c r="M156" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.266973225715201</v>
       </c>
     </row>
@@ -15865,21 +15869,21 @@
         <v>14.217188819564001</v>
       </c>
       <c r="I157" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1085944097820004</v>
       </c>
       <c r="J157" s="7">
         <v>1001.04</v>
       </c>
       <c r="K157" s="7">
-        <f t="shared" si="13"/>
-        <v>3.4660000000000082</v>
+        <f t="shared" si="17"/>
+        <v>2.8369999999999891</v>
       </c>
       <c r="L157" s="7">
         <v>36.1923156153712</v>
       </c>
       <c r="M157" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18.0961578076856</v>
       </c>
     </row>
@@ -15912,21 +15916,21 @@
         <v>13.950929691143999</v>
       </c>
       <c r="I158" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9754648455719996</v>
       </c>
       <c r="J158" s="7">
         <v>1001.04</v>
       </c>
       <c r="K158" s="7">
-        <f t="shared" si="13"/>
-        <v>3.41599999999994</v>
+        <f t="shared" si="17"/>
+        <v>2.8379999999999654</v>
       </c>
       <c r="L158" s="7">
         <v>24.016438537353</v>
       </c>
       <c r="M158" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.0082192686765</v>
       </c>
     </row>
@@ -15959,19 +15963,19 @@
         <v>14.322234741922101</v>
       </c>
       <c r="I159" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1611173709610503</v>
       </c>
       <c r="J159" s="21">
         <v>1001.04</v>
       </c>
-      <c r="K159" s="21">
-        <f t="shared" si="13"/>
-        <v>3.3109999999999218</v>
+      <c r="K159" s="7">
+        <f t="shared" si="17"/>
+        <v>2.8389999999999418</v>
       </c>
       <c r="L159" s="18"/>
       <c r="M159" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16004,19 +16008,19 @@
         <v>12.8632392276721</v>
       </c>
       <c r="I160" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.43161961383605</v>
       </c>
       <c r="J160" s="21">
         <v>1001.03</v>
       </c>
-      <c r="K160" s="21">
-        <f t="shared" si="13"/>
-        <v>3.20799999999997</v>
+      <c r="K160" s="7">
+        <f t="shared" si="17"/>
+        <v>2.8299999999999272</v>
       </c>
       <c r="L160" s="18"/>
       <c r="M160" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16049,19 +16053,19 @@
         <v>12.317260237950601</v>
       </c>
       <c r="I161" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.1586301189753003</v>
       </c>
       <c r="J161" s="21">
         <v>1001.03</v>
       </c>
-      <c r="K161" s="21">
-        <f t="shared" si="13"/>
-        <v>3.2210000000000036</v>
+      <c r="K161" s="7">
+        <f t="shared" si="17"/>
+        <v>2.8319999999999936</v>
       </c>
       <c r="L161" s="18"/>
       <c r="M161" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16094,19 +16098,19 @@
         <v>13.152471065165701</v>
       </c>
       <c r="I162" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.5762355325828503</v>
       </c>
       <c r="J162" s="21">
         <v>1001.03</v>
       </c>
-      <c r="K162" s="21">
-        <f t="shared" si="13"/>
-        <v>3.1779999999999973</v>
+      <c r="K162" s="7">
+        <f t="shared" si="17"/>
+        <v>2.83299999999997</v>
       </c>
       <c r="L162" s="18"/>
       <c r="M162" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16139,19 +16143,19 @@
         <v>12.7323118924983</v>
       </c>
       <c r="I163" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.3661559462491502</v>
       </c>
       <c r="J163" s="21">
         <v>1001.03</v>
       </c>
-      <c r="K163" s="21">
-        <f t="shared" si="13"/>
-        <v>3.0810000000000173</v>
+      <c r="K163" s="7">
+        <f t="shared" si="17"/>
+        <v>1001.03</v>
       </c>
       <c r="L163" s="18"/>
       <c r="M163" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16170,17 +16174,17 @@
         <v>10.734970442568001</v>
       </c>
       <c r="I164" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.3674852212840003</v>
       </c>
       <c r="J164" s="18"/>
-      <c r="K164" s="21">
-        <f t="shared" si="13"/>
+      <c r="K164" s="7">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L164" s="18"/>
       <c r="M164" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N164" s="18"/>

--- a/sfe322_gcs_analysis/0_SFE_322_RiverBuilder_metrics.xlsx
+++ b/sfe322_gcs_analysis/0_SFE_322_RiverBuilder_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\usu-RiverBuilder\sfe322_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB08887-A550-4404-8BFA-8897000074B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A49BC9B-79D8-4A07-BE16-839B050F3964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3525" yWindow="2985" windowWidth="12465" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spatial_series" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Thalweg length</t>
   </si>
@@ -8249,8 +8249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8378,7 +8378,7 @@
         <v>1002</v>
       </c>
       <c r="K3" s="21">
-        <f t="shared" ref="K3:K66" si="1">J3-C3</f>
+        <f t="shared" ref="K3" si="1">J3-C3</f>
         <v>2.1789999999999736</v>
       </c>
       <c r="L3" s="18"/>
@@ -9641,9 +9641,7 @@
       <c r="Y26" s="14">
         <v>0.01</v>
       </c>
-      <c r="Z26" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -9697,9 +9695,7 @@
       <c r="Y27" s="13">
         <v>1.2E-2</v>
       </c>
-      <c r="Z27" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="Z27" s="10"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -9746,10 +9742,6 @@
       <c r="M28" s="26">
         <f t="shared" si="6"/>
         <v>15.6818277190386</v>
-      </c>
-      <c r="Y28">
-        <f>Y27*0.6</f>
-        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
